--- a/data_output/Excess Mortality/Countries/TOTAL_EUROPE_(65-69)_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
+++ b/data_output/Excess Mortality/Countries/TOTAL_EUROPE_(65-69)_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z91"/>
+  <dimension ref="A1:Z88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1582,7 +1582,7 @@
         <v>2020</v>
       </c>
       <c r="D13" t="n">
-        <v>5359</v>
+        <v>5361</v>
       </c>
       <c r="E13" t="n">
         <v>4130</v>
@@ -1597,65 +1597,65 @@
         <v>4414</v>
       </c>
       <c r="I13" t="n">
-        <v>4421</v>
+        <v>4422</v>
       </c>
       <c r="J13" t="n">
-        <v>4344.200000000001</v>
+        <v>4344.400000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>145.9</v>
+        <v>146.1</v>
       </c>
       <c r="L13" t="n">
         <v>1.96</v>
       </c>
       <c r="M13" t="n">
-        <v>127.9</v>
+        <v>128.1</v>
       </c>
       <c r="N13" t="n">
-        <v>4216.300000000001</v>
+        <v>4216.3</v>
       </c>
       <c r="O13" t="n">
-        <v>4472.1</v>
+        <v>4472.500000000001</v>
       </c>
       <c r="P13" t="n">
-        <v>1014.8</v>
+        <v>1016.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.9</v>
+        <v>128.1</v>
       </c>
       <c r="R13" t="n">
         <v>23.4</v>
       </c>
       <c r="S13" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>4344.2 (±127.9)</t>
+          <t>4344.4 (±128.1)</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>1014.8 (±127.9)</t>
+          <t>1016.6 (±128.1)</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>23.4% (±3.6%)</t>
+          <t>23.4% (±3.5%)</t>
         </is>
       </c>
       <c r="W13" t="n">
         <v>366614</v>
       </c>
       <c r="X13" t="n">
-        <v>276.8</v>
+        <v>277.3</v>
       </c>
       <c r="Y13" t="n">
         <v>34.9</v>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>276.8(±34.9)</t>
+          <t>277.3(±34.9)</t>
         </is>
       </c>
     </row>
@@ -1943,87 +1943,87 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liechtenstein</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>2020</v>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>1055</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>1001</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>970</v>
       </c>
       <c r="G17" t="n">
-        <v>9</v>
+        <v>942</v>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>932</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>934</v>
       </c>
       <c r="J17" t="n">
-        <v>7.000000000000002</v>
+        <v>974.2</v>
       </c>
       <c r="K17" t="n">
-        <v>2.4</v>
+        <v>26.4</v>
       </c>
       <c r="L17" t="n">
         <v>1.96</v>
       </c>
       <c r="M17" t="n">
-        <v>2.1</v>
+        <v>23.1</v>
       </c>
       <c r="N17" t="n">
-        <v>4.900000000000002</v>
+        <v>951.1</v>
       </c>
       <c r="O17" t="n">
-        <v>9.100000000000001</v>
+        <v>997.3000000000001</v>
       </c>
       <c r="P17" t="n">
-        <v>-2</v>
+        <v>80.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.1</v>
+        <v>23.1</v>
       </c>
       <c r="R17" t="n">
-        <v>-28.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S17" t="n">
-        <v>16.5</v>
+        <v>2.5</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>7.0 (±2.1)</t>
+          <t>974.2 (±23.1)</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>-2.0 (±2.1)</t>
+          <t>80.8 (±23.1)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>-28.6% (±16.5%)</t>
+          <t>8.3% (±2.5%)</t>
         </is>
       </c>
       <c r="W17" t="n">
-        <v>1118</v>
+        <v>92402</v>
       </c>
       <c r="X17" t="n">
-        <v>-178.9</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="Y17" t="n">
-        <v>187.8</v>
+        <v>25</v>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>-178.9(±187.8)</t>
+          <t>87.4(±25.0)</t>
         </is>
       </c>
     </row>
@@ -2035,87 +2035,87 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>2020</v>
       </c>
       <c r="D18" t="n">
-        <v>1055</v>
+        <v>108</v>
       </c>
       <c r="E18" t="n">
-        <v>1001</v>
+        <v>101</v>
       </c>
       <c r="F18" t="n">
-        <v>970</v>
+        <v>84</v>
       </c>
       <c r="G18" t="n">
-        <v>942</v>
+        <v>104</v>
       </c>
       <c r="H18" t="n">
-        <v>932</v>
+        <v>89</v>
       </c>
       <c r="I18" t="n">
-        <v>934</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>974.2</v>
+        <v>93.39999999999996</v>
       </c>
       <c r="K18" t="n">
-        <v>26.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L18" t="n">
         <v>1.96</v>
       </c>
       <c r="M18" t="n">
-        <v>23.1</v>
+        <v>7.3</v>
       </c>
       <c r="N18" t="n">
-        <v>951.1</v>
+        <v>86.09999999999997</v>
       </c>
       <c r="O18" t="n">
-        <v>997.3000000000001</v>
+        <v>100.7</v>
       </c>
       <c r="P18" t="n">
-        <v>80.8</v>
+        <v>14.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>23.1</v>
+        <v>7.3</v>
       </c>
       <c r="R18" t="n">
-        <v>8.300000000000001</v>
+        <v>15.6</v>
       </c>
       <c r="S18" t="n">
-        <v>2.5</v>
+        <v>8.4</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>974.2 (±23.1)</t>
+          <t>93.4 (±7.3)</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>80.8 (±23.1)</t>
+          <t>14.6 (±7.3)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>8.3% (±2.5%)</t>
+          <t>15.6% (±8.4%)</t>
         </is>
       </c>
       <c r="W18" t="n">
-        <v>92402</v>
+        <v>13913</v>
       </c>
       <c r="X18" t="n">
-        <v>87.40000000000001</v>
+        <v>104.9</v>
       </c>
       <c r="Y18" t="n">
-        <v>25</v>
+        <v>52.5</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>87.4(±25.0)</t>
+          <t>104.9(±52.5)</t>
         </is>
       </c>
     </row>
@@ -2127,87 +2127,87 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>2020</v>
       </c>
       <c r="D19" t="n">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="E19" t="n">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F19" t="n">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="G19" t="n">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="H19" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I19" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J19" t="n">
-        <v>93.39999999999996</v>
+        <v>95.19999999999997</v>
       </c>
       <c r="K19" t="n">
-        <v>8.300000000000001</v>
+        <v>12.9</v>
       </c>
       <c r="L19" t="n">
         <v>1.96</v>
       </c>
       <c r="M19" t="n">
-        <v>7.3</v>
+        <v>11.3</v>
       </c>
       <c r="N19" t="n">
-        <v>86.09999999999997</v>
+        <v>83.89999999999998</v>
       </c>
       <c r="O19" t="n">
-        <v>100.7</v>
+        <v>106.5</v>
       </c>
       <c r="P19" t="n">
-        <v>14.6</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.3</v>
+        <v>11.3</v>
       </c>
       <c r="R19" t="n">
-        <v>15.6</v>
+        <v>-8.6</v>
       </c>
       <c r="S19" t="n">
-        <v>8.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>93.4 (±7.3)</t>
+          <t>95.2 (±11.3)</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>14.6 (±7.3)</t>
+          <t>-8.2 (±11.3)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>15.6% (±8.4%)</t>
+          <t>-8.6% (±9.7%)</t>
         </is>
       </c>
       <c r="W19" t="n">
-        <v>13913</v>
+        <v>14406</v>
       </c>
       <c r="X19" t="n">
-        <v>104.9</v>
+        <v>-56.9</v>
       </c>
       <c r="Y19" t="n">
-        <v>52.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>104.9(±52.5)</t>
+          <t>-56.9(±78.4)</t>
         </is>
       </c>
     </row>
@@ -2219,87 +2219,87 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>2020</v>
       </c>
       <c r="D20" t="n">
-        <v>87</v>
+        <v>232</v>
       </c>
       <c r="E20" t="n">
-        <v>111</v>
+        <v>205</v>
       </c>
       <c r="F20" t="n">
-        <v>104</v>
+        <v>238</v>
       </c>
       <c r="G20" t="n">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="H20" t="n">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="I20" t="n">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="J20" t="n">
-        <v>95.19999999999997</v>
+        <v>212.2</v>
       </c>
       <c r="K20" t="n">
-        <v>12.9</v>
+        <v>15.8</v>
       </c>
       <c r="L20" t="n">
         <v>1.96</v>
       </c>
       <c r="M20" t="n">
-        <v>11.3</v>
+        <v>13.8</v>
       </c>
       <c r="N20" t="n">
-        <v>83.89999999999998</v>
+        <v>198.4</v>
       </c>
       <c r="O20" t="n">
-        <v>106.5</v>
+        <v>226</v>
       </c>
       <c r="P20" t="n">
-        <v>-8.199999999999999</v>
+        <v>19.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>11.3</v>
+        <v>13.8</v>
       </c>
       <c r="R20" t="n">
-        <v>-8.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S20" t="n">
-        <v>9.699999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>95.2 (±11.3)</t>
+          <t>212.2 (±13.8)</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>-8.2 (±11.3)</t>
+          <t>19.8 (±13.8)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>-8.6% (±9.7%)</t>
+          <t>9.3% (±6.6%)</t>
         </is>
       </c>
       <c r="W20" t="n">
-        <v>14406</v>
+        <v>19269</v>
       </c>
       <c r="X20" t="n">
-        <v>-56.9</v>
+        <v>102.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>78.40000000000001</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>-56.9(±78.4)</t>
+          <t>102.8(±71.6)</t>
         </is>
       </c>
     </row>
@@ -2311,87 +2311,87 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>2020</v>
       </c>
       <c r="D21" t="n">
-        <v>232</v>
+        <v>3967</v>
       </c>
       <c r="E21" t="n">
-        <v>205</v>
+        <v>4120</v>
       </c>
       <c r="F21" t="n">
-        <v>238</v>
+        <v>3871</v>
       </c>
       <c r="G21" t="n">
-        <v>190</v>
+        <v>3626</v>
       </c>
       <c r="H21" t="n">
-        <v>212</v>
+        <v>3580</v>
       </c>
       <c r="I21" t="n">
-        <v>204</v>
+        <v>3595</v>
       </c>
       <c r="J21" t="n">
-        <v>212.2</v>
+        <v>3833.6</v>
       </c>
       <c r="K21" t="n">
-        <v>15.8</v>
+        <v>209.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.96</v>
       </c>
       <c r="M21" t="n">
-        <v>13.8</v>
+        <v>183.6</v>
       </c>
       <c r="N21" t="n">
-        <v>198.4</v>
+        <v>3650</v>
       </c>
       <c r="O21" t="n">
-        <v>226</v>
+        <v>4017.2</v>
       </c>
       <c r="P21" t="n">
-        <v>19.8</v>
+        <v>133.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>13.8</v>
+        <v>183.6</v>
       </c>
       <c r="R21" t="n">
-        <v>9.300000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="S21" t="n">
-        <v>6.6</v>
+        <v>4.7</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>212.2 (±13.8)</t>
+          <t>3833.6 (±183.6)</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>19.8 (±13.8)</t>
+          <t>133.4 (±183.6)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>9.3% (±6.6%)</t>
+          <t>3.5% (±4.7%)</t>
         </is>
       </c>
       <c r="W21" t="n">
-        <v>19269</v>
+        <v>502794</v>
       </c>
       <c r="X21" t="n">
-        <v>102.8</v>
+        <v>26.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>71.59999999999999</v>
+        <v>36.5</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>102.8(±71.6)</t>
+          <t>26.5(±36.5)</t>
         </is>
       </c>
     </row>
@@ -2403,87 +2403,87 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>2020</v>
       </c>
       <c r="D22" t="n">
-        <v>3967</v>
+        <v>897</v>
       </c>
       <c r="E22" t="n">
-        <v>4120</v>
+        <v>951</v>
       </c>
       <c r="F22" t="n">
-        <v>3871</v>
+        <v>969</v>
       </c>
       <c r="G22" t="n">
-        <v>3626</v>
+        <v>932</v>
       </c>
       <c r="H22" t="n">
-        <v>3580</v>
+        <v>910</v>
       </c>
       <c r="I22" t="n">
-        <v>3595</v>
+        <v>855</v>
       </c>
       <c r="J22" t="n">
-        <v>3833.6</v>
+        <v>941.0000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>209.5</v>
+        <v>39.4</v>
       </c>
       <c r="L22" t="n">
         <v>1.96</v>
       </c>
       <c r="M22" t="n">
-        <v>183.6</v>
+        <v>34.5</v>
       </c>
       <c r="N22" t="n">
-        <v>3650</v>
+        <v>906.5000000000001</v>
       </c>
       <c r="O22" t="n">
-        <v>4017.2</v>
+        <v>975.5000000000001</v>
       </c>
       <c r="P22" t="n">
-        <v>133.4</v>
+        <v>-44</v>
       </c>
       <c r="Q22" t="n">
-        <v>183.6</v>
+        <v>34.5</v>
       </c>
       <c r="R22" t="n">
-        <v>3.5</v>
+        <v>-4.7</v>
       </c>
       <c r="S22" t="n">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>3833.6 (±183.6)</t>
+          <t>941.0 (±34.5)</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>133.4 (±183.6)</t>
+          <t>-44.0 (±34.5)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>3.5% (±4.7%)</t>
+          <t>-4.7% (±3.3%)</t>
         </is>
       </c>
       <c r="W22" t="n">
-        <v>502794</v>
+        <v>138228</v>
       </c>
       <c r="X22" t="n">
-        <v>26.5</v>
+        <v>-31.8</v>
       </c>
       <c r="Y22" t="n">
-        <v>36.5</v>
+        <v>24.9</v>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>26.5(±36.5)</t>
+          <t>-31.8(±24.9)</t>
         </is>
       </c>
     </row>
@@ -2495,87 +2495,87 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>2020</v>
       </c>
       <c r="D23" t="n">
-        <v>897</v>
+        <v>16084</v>
       </c>
       <c r="E23" t="n">
-        <v>951</v>
+        <v>12019</v>
       </c>
       <c r="F23" t="n">
-        <v>969</v>
+        <v>12246</v>
       </c>
       <c r="G23" t="n">
-        <v>932</v>
+        <v>12834</v>
       </c>
       <c r="H23" t="n">
-        <v>910</v>
+        <v>13235</v>
       </c>
       <c r="I23" t="n">
-        <v>855</v>
+        <v>13509</v>
       </c>
       <c r="J23" t="n">
-        <v>941.0000000000001</v>
+        <v>12997.40000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>39.4</v>
+        <v>566.6</v>
       </c>
       <c r="L23" t="n">
         <v>1.96</v>
       </c>
       <c r="M23" t="n">
-        <v>34.5</v>
+        <v>496.6</v>
       </c>
       <c r="N23" t="n">
-        <v>906.5000000000001</v>
+        <v>12500.8</v>
       </c>
       <c r="O23" t="n">
-        <v>975.5000000000001</v>
+        <v>13494.00000000001</v>
       </c>
       <c r="P23" t="n">
-        <v>-44</v>
+        <v>3086.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>34.5</v>
+        <v>496.6</v>
       </c>
       <c r="R23" t="n">
-        <v>-4.7</v>
+        <v>23.7</v>
       </c>
       <c r="S23" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>941.0 (±34.5)</t>
+          <t>12997.4 (±496.6)</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>-44.0 (±34.5)</t>
+          <t>3086.6 (±496.6)</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>-4.7% (±3.3%)</t>
+          <t>23.7% (±4.5%)</t>
         </is>
       </c>
       <c r="W23" t="n">
-        <v>138228</v>
+        <v>1352561</v>
       </c>
       <c r="X23" t="n">
-        <v>-31.8</v>
+        <v>228.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>24.9</v>
+        <v>36.7</v>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>-31.8(±24.9)</t>
+          <t>228.2(±36.7)</t>
         </is>
       </c>
     </row>
@@ -2587,87 +2587,87 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>2020</v>
       </c>
       <c r="D24" t="n">
-        <v>16084</v>
+        <v>2082</v>
       </c>
       <c r="E24" t="n">
-        <v>12019</v>
+        <v>1829</v>
       </c>
       <c r="F24" t="n">
-        <v>12246</v>
+        <v>1894</v>
       </c>
       <c r="G24" t="n">
-        <v>12834</v>
+        <v>1848</v>
       </c>
       <c r="H24" t="n">
-        <v>13235</v>
+        <v>1782</v>
       </c>
       <c r="I24" t="n">
-        <v>13509</v>
+        <v>1792</v>
       </c>
       <c r="J24" t="n">
-        <v>12997.40000000001</v>
+        <v>1863.4</v>
       </c>
       <c r="K24" t="n">
-        <v>566.6</v>
+        <v>40.4</v>
       </c>
       <c r="L24" t="n">
         <v>1.96</v>
       </c>
       <c r="M24" t="n">
-        <v>496.6</v>
+        <v>35.4</v>
       </c>
       <c r="N24" t="n">
-        <v>12500.8</v>
+        <v>1828</v>
       </c>
       <c r="O24" t="n">
-        <v>13494.00000000001</v>
+        <v>1898.8</v>
       </c>
       <c r="P24" t="n">
-        <v>3086.6</v>
+        <v>218.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>496.6</v>
+        <v>35.4</v>
       </c>
       <c r="R24" t="n">
-        <v>23.7</v>
+        <v>11.7</v>
       </c>
       <c r="S24" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>12997.4 (±496.6)</t>
+          <t>1863.4 (±35.4)</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>3086.6 (±496.6)</t>
+          <t>218.6 (±35.4)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>23.7% (±4.5%)</t>
+          <t>11.7% (±2.1%)</t>
         </is>
       </c>
       <c r="W24" t="n">
-        <v>1352561</v>
+        <v>337447</v>
       </c>
       <c r="X24" t="n">
-        <v>228.2</v>
+        <v>64.8</v>
       </c>
       <c r="Y24" t="n">
-        <v>36.7</v>
+        <v>10.5</v>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>228.2(±36.7)</t>
+          <t>64.8(±10.5)</t>
         </is>
       </c>
     </row>
@@ -2679,87 +2679,87 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>2020</v>
       </c>
       <c r="D25" t="n">
-        <v>2082</v>
+        <v>9792</v>
       </c>
       <c r="E25" t="n">
-        <v>1829</v>
+        <v>7001</v>
       </c>
       <c r="F25" t="n">
-        <v>1894</v>
+        <v>7444</v>
       </c>
       <c r="G25" t="n">
-        <v>1848</v>
+        <v>7489</v>
       </c>
       <c r="H25" t="n">
-        <v>1782</v>
+        <v>7890</v>
       </c>
       <c r="I25" t="n">
-        <v>1792</v>
+        <v>7618</v>
       </c>
       <c r="J25" t="n">
-        <v>1863.4</v>
+        <v>7633.999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>40.4</v>
+        <v>289</v>
       </c>
       <c r="L25" t="n">
         <v>1.96</v>
       </c>
       <c r="M25" t="n">
-        <v>35.4</v>
+        <v>253.3</v>
       </c>
       <c r="N25" t="n">
-        <v>1828</v>
+        <v>7380.699999999999</v>
       </c>
       <c r="O25" t="n">
-        <v>1898.8</v>
+        <v>7887.299999999999</v>
       </c>
       <c r="P25" t="n">
-        <v>218.6</v>
+        <v>2158</v>
       </c>
       <c r="Q25" t="n">
-        <v>35.4</v>
+        <v>253.3</v>
       </c>
       <c r="R25" t="n">
-        <v>11.7</v>
+        <v>28.3</v>
       </c>
       <c r="S25" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>1863.4 (±35.4)</t>
+          <t>7634.0 (±253.3)</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>218.6 (±35.4)</t>
+          <t>2158.0 (±253.3)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>11.7% (±2.1%)</t>
+          <t>28.3% (±4.2%)</t>
         </is>
       </c>
       <c r="W25" t="n">
-        <v>337447</v>
+        <v>670155</v>
       </c>
       <c r="X25" t="n">
-        <v>64.8</v>
+        <v>322</v>
       </c>
       <c r="Y25" t="n">
-        <v>10.5</v>
+        <v>37.8</v>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>64.8(±10.5)</t>
+          <t>322.0(±37.8)</t>
         </is>
       </c>
     </row>
@@ -2771,87 +2771,87 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>2020</v>
       </c>
       <c r="D26" t="n">
-        <v>9792</v>
+        <v>2003</v>
       </c>
       <c r="E26" t="n">
-        <v>7001</v>
+        <v>1546</v>
       </c>
       <c r="F26" t="n">
-        <v>7444</v>
+        <v>1680</v>
       </c>
       <c r="G26" t="n">
-        <v>7489</v>
+        <v>1625</v>
       </c>
       <c r="H26" t="n">
-        <v>7890</v>
+        <v>1751</v>
       </c>
       <c r="I26" t="n">
-        <v>7618</v>
+        <v>1681</v>
       </c>
       <c r="J26" t="n">
-        <v>7633.999999999999</v>
+        <v>1687.8</v>
       </c>
       <c r="K26" t="n">
-        <v>289</v>
+        <v>68.2</v>
       </c>
       <c r="L26" t="n">
         <v>1.96</v>
       </c>
       <c r="M26" t="n">
-        <v>253.3</v>
+        <v>59.8</v>
       </c>
       <c r="N26" t="n">
-        <v>7380.699999999999</v>
+        <v>1628</v>
       </c>
       <c r="O26" t="n">
-        <v>7887.299999999999</v>
+        <v>1747.6</v>
       </c>
       <c r="P26" t="n">
-        <v>2158</v>
+        <v>315.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>253.3</v>
+        <v>59.8</v>
       </c>
       <c r="R26" t="n">
-        <v>28.3</v>
+        <v>18.7</v>
       </c>
       <c r="S26" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>7634.0 (±253.3)</t>
+          <t>1687.8 (±59.8)</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>2158.0 (±253.3)</t>
+          <t>315.2 (±59.8)</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>28.3% (±4.2%)</t>
+          <t>18.7% (±4.1%)</t>
         </is>
       </c>
       <c r="W26" t="n">
-        <v>670155</v>
+        <v>181339</v>
       </c>
       <c r="X26" t="n">
-        <v>322</v>
+        <v>173.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>37.8</v>
+        <v>33</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>322.0(±37.8)</t>
+          <t>173.8(±33.0)</t>
         </is>
       </c>
     </row>
@@ -2863,87 +2863,87 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>2020</v>
       </c>
       <c r="D27" t="n">
-        <v>2003</v>
+        <v>487</v>
       </c>
       <c r="E27" t="n">
-        <v>1546</v>
+        <v>441</v>
       </c>
       <c r="F27" t="n">
-        <v>1680</v>
+        <v>403</v>
       </c>
       <c r="G27" t="n">
-        <v>1625</v>
+        <v>419</v>
       </c>
       <c r="H27" t="n">
-        <v>1751</v>
+        <v>497</v>
       </c>
       <c r="I27" t="n">
-        <v>1681</v>
+        <v>471</v>
       </c>
       <c r="J27" t="n">
-        <v>1687.8</v>
+        <v>458.1999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>68.2</v>
+        <v>34.1</v>
       </c>
       <c r="L27" t="n">
         <v>1.96</v>
       </c>
       <c r="M27" t="n">
-        <v>59.8</v>
+        <v>29.9</v>
       </c>
       <c r="N27" t="n">
-        <v>1628</v>
+        <v>428.3</v>
       </c>
       <c r="O27" t="n">
-        <v>1747.6</v>
+        <v>488.0999999999999</v>
       </c>
       <c r="P27" t="n">
-        <v>315.2</v>
+        <v>28.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>59.8</v>
+        <v>29.9</v>
       </c>
       <c r="R27" t="n">
-        <v>18.7</v>
+        <v>6.3</v>
       </c>
       <c r="S27" t="n">
-        <v>4.1</v>
+        <v>6.5</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>1687.8 (±59.8)</t>
+          <t>458.2 (±29.9)</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>315.2 (±59.8)</t>
+          <t>28.8 (±29.9)</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>18.7% (±4.1%)</t>
+          <t>6.3% (±6.5%)</t>
         </is>
       </c>
       <c r="W27" t="n">
-        <v>181339</v>
+        <v>68823</v>
       </c>
       <c r="X27" t="n">
-        <v>173.8</v>
+        <v>41.8</v>
       </c>
       <c r="Y27" t="n">
-        <v>33</v>
+        <v>43.5</v>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>173.8(±33.0)</t>
+          <t>41.8(±43.5)</t>
         </is>
       </c>
     </row>
@@ -2955,87 +2955,87 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>2020</v>
       </c>
       <c r="D28" t="n">
-        <v>487</v>
+        <v>7597</v>
       </c>
       <c r="E28" t="n">
-        <v>441</v>
+        <v>5988</v>
       </c>
       <c r="F28" t="n">
-        <v>403</v>
+        <v>6069</v>
       </c>
       <c r="G28" t="n">
-        <v>419</v>
+        <v>6115</v>
       </c>
       <c r="H28" t="n">
-        <v>497</v>
+        <v>6051</v>
       </c>
       <c r="I28" t="n">
-        <v>471</v>
+        <v>6112</v>
       </c>
       <c r="J28" t="n">
-        <v>458.1999999999999</v>
+        <v>6192.599999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>34.1</v>
+        <v>46.5</v>
       </c>
       <c r="L28" t="n">
         <v>1.96</v>
       </c>
       <c r="M28" t="n">
-        <v>29.9</v>
+        <v>40.8</v>
       </c>
       <c r="N28" t="n">
-        <v>428.3</v>
+        <v>6151.799999999998</v>
       </c>
       <c r="O28" t="n">
-        <v>488.0999999999999</v>
+        <v>6233.399999999999</v>
       </c>
       <c r="P28" t="n">
-        <v>28.8</v>
+        <v>1404.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.9</v>
+        <v>40.8</v>
       </c>
       <c r="R28" t="n">
-        <v>6.3</v>
+        <v>22.7</v>
       </c>
       <c r="S28" t="n">
-        <v>6.5</v>
+        <v>0.8</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>458.2 (±29.9)</t>
+          <t>6192.6 (±40.8)</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>28.8 (±29.9)</t>
+          <t>1404.4 (±40.8)</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>6.3% (±6.5%)</t>
+          <t>22.7% (±0.8%)</t>
         </is>
       </c>
       <c r="W28" t="n">
-        <v>68823</v>
+        <v>1271580</v>
       </c>
       <c r="X28" t="n">
-        <v>41.8</v>
+        <v>110.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>43.5</v>
+        <v>3.3</v>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>41.8(±43.5)</t>
+          <t>110.4(±3.3)</t>
         </is>
       </c>
     </row>
@@ -3047,87 +3047,87 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>2020</v>
       </c>
       <c r="D29" t="n">
-        <v>7597</v>
+        <v>1758</v>
       </c>
       <c r="E29" t="n">
-        <v>5988</v>
+        <v>2152</v>
       </c>
       <c r="F29" t="n">
-        <v>6069</v>
+        <v>1928</v>
       </c>
       <c r="G29" t="n">
-        <v>6115</v>
+        <v>1894</v>
       </c>
       <c r="H29" t="n">
-        <v>6051</v>
+        <v>1859</v>
       </c>
       <c r="I29" t="n">
-        <v>6112</v>
+        <v>1678</v>
       </c>
       <c r="J29" t="n">
-        <v>6192.599999999999</v>
+        <v>1943.8</v>
       </c>
       <c r="K29" t="n">
-        <v>46.5</v>
+        <v>151.8</v>
       </c>
       <c r="L29" t="n">
         <v>1.96</v>
       </c>
       <c r="M29" t="n">
-        <v>40.8</v>
+        <v>133.1</v>
       </c>
       <c r="N29" t="n">
-        <v>6151.799999999998</v>
+        <v>1810.7</v>
       </c>
       <c r="O29" t="n">
-        <v>6233.399999999999</v>
+        <v>2076.9</v>
       </c>
       <c r="P29" t="n">
-        <v>1404.4</v>
+        <v>-185.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>40.8</v>
+        <v>133.1</v>
       </c>
       <c r="R29" t="n">
-        <v>22.7</v>
+        <v>-9.6</v>
       </c>
       <c r="S29" t="n">
-        <v>0.8</v>
+        <v>5.8</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>6192.6 (±40.8)</t>
+          <t>1943.8 (±133.1)</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>1404.4 (±40.8)</t>
+          <t>-185.8 (±133.1)</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>22.7% (±0.8%)</t>
+          <t>-9.6% (±5.8%)</t>
         </is>
       </c>
       <c r="W29" t="n">
-        <v>1271580</v>
+        <v>272942</v>
       </c>
       <c r="X29" t="n">
-        <v>110.4</v>
+        <v>-68.09999999999999</v>
       </c>
       <c r="Y29" t="n">
-        <v>3.3</v>
+        <v>48.8</v>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>110.4(±3.3)</t>
+          <t>-68.1(±48.8)</t>
         </is>
       </c>
     </row>
@@ -3139,179 +3139,179 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>2020</v>
       </c>
       <c r="D30" t="n">
-        <v>1758</v>
+        <v>1174</v>
       </c>
       <c r="E30" t="n">
-        <v>2152</v>
+        <v>1301</v>
       </c>
       <c r="F30" t="n">
-        <v>1928</v>
+        <v>1244</v>
       </c>
       <c r="G30" t="n">
-        <v>1894</v>
+        <v>1206</v>
       </c>
       <c r="H30" t="n">
-        <v>1859</v>
+        <v>1194</v>
       </c>
       <c r="I30" t="n">
-        <v>1678</v>
+        <v>1149</v>
       </c>
       <c r="J30" t="n">
-        <v>1943.8</v>
+        <v>1246.8</v>
       </c>
       <c r="K30" t="n">
-        <v>151.8</v>
+        <v>51.1</v>
       </c>
       <c r="L30" t="n">
         <v>1.96</v>
       </c>
       <c r="M30" t="n">
-        <v>133.1</v>
+        <v>44.8</v>
       </c>
       <c r="N30" t="n">
-        <v>1810.7</v>
+        <v>1202</v>
       </c>
       <c r="O30" t="n">
-        <v>2076.9</v>
+        <v>1291.6</v>
       </c>
       <c r="P30" t="n">
-        <v>-185.8</v>
+        <v>-72.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>133.1</v>
+        <v>44.8</v>
       </c>
       <c r="R30" t="n">
-        <v>-9.6</v>
+        <v>-5.8</v>
       </c>
       <c r="S30" t="n">
-        <v>5.8</v>
+        <v>3.3</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>1943.8 (±133.1)</t>
+          <t>1246.8 (±44.8)</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>-185.8 (±133.1)</t>
+          <t>-72.8 (±44.8)</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>-9.6% (±5.8%)</t>
+          <t>-5.8% (±3.3%)</t>
         </is>
       </c>
       <c r="W30" t="n">
-        <v>272942</v>
+        <v>222768</v>
       </c>
       <c r="X30" t="n">
-        <v>-68.09999999999999</v>
+        <v>-32.7</v>
       </c>
       <c r="Y30" t="n">
-        <v>48.8</v>
+        <v>20.1</v>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>-68.1(±48.8)</t>
+          <t>-32.7(±20.1)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>2020</v>
       </c>
       <c r="D31" t="n">
-        <v>1172</v>
+        <v>2889</v>
       </c>
       <c r="E31" t="n">
-        <v>1301</v>
+        <v>2854</v>
       </c>
       <c r="F31" t="n">
-        <v>1244</v>
+        <v>2871</v>
       </c>
       <c r="G31" t="n">
-        <v>1206</v>
+        <v>2629</v>
       </c>
       <c r="H31" t="n">
-        <v>1194</v>
+        <v>2656</v>
       </c>
       <c r="I31" t="n">
-        <v>1149</v>
+        <v>2606</v>
       </c>
       <c r="J31" t="n">
-        <v>1246.8</v>
+        <v>2784</v>
       </c>
       <c r="K31" t="n">
-        <v>51.1</v>
+        <v>115</v>
       </c>
       <c r="L31" t="n">
         <v>1.96</v>
       </c>
       <c r="M31" t="n">
-        <v>44.8</v>
+        <v>100.8</v>
       </c>
       <c r="N31" t="n">
-        <v>1202</v>
+        <v>2683.199999999999</v>
       </c>
       <c r="O31" t="n">
-        <v>1291.6</v>
+        <v>2884.8</v>
       </c>
       <c r="P31" t="n">
-        <v>-74.8</v>
+        <v>105</v>
       </c>
       <c r="Q31" t="n">
-        <v>44.8</v>
+        <v>100.8</v>
       </c>
       <c r="R31" t="n">
-        <v>-6</v>
+        <v>3.8</v>
       </c>
       <c r="S31" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>1246.8 (±44.8)</t>
+          <t>2784.0 (±100.8)</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>-74.8 (±44.8)</t>
+          <t>105.0 (±100.8)</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>-6.0% (±3.3%)</t>
+          <t>3.8% (±3.7%)</t>
         </is>
       </c>
       <c r="W31" t="n">
-        <v>222768</v>
+        <v>213220</v>
       </c>
       <c r="X31" t="n">
-        <v>-33.6</v>
+        <v>49.2</v>
       </c>
       <c r="Y31" t="n">
-        <v>20.1</v>
+        <v>47.3</v>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>-33.6(±20.1)</t>
+          <t>49.2(±47.3)</t>
         </is>
       </c>
     </row>
@@ -3323,87 +3323,87 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>2020</v>
       </c>
       <c r="D32" t="n">
-        <v>2889</v>
+        <v>4569</v>
       </c>
       <c r="E32" t="n">
-        <v>2854</v>
+        <v>4040</v>
       </c>
       <c r="F32" t="n">
-        <v>2871</v>
+        <v>4027</v>
       </c>
       <c r="G32" t="n">
-        <v>2629</v>
+        <v>3922</v>
       </c>
       <c r="H32" t="n">
-        <v>2656</v>
+        <v>3882</v>
       </c>
       <c r="I32" t="n">
-        <v>2606</v>
+        <v>3729</v>
       </c>
       <c r="J32" t="n">
-        <v>2784</v>
+        <v>3996.8</v>
       </c>
       <c r="K32" t="n">
-        <v>115</v>
+        <v>112.9</v>
       </c>
       <c r="L32" t="n">
         <v>1.96</v>
       </c>
       <c r="M32" t="n">
-        <v>100.8</v>
+        <v>99</v>
       </c>
       <c r="N32" t="n">
-        <v>2683.199999999999</v>
+        <v>3897.8</v>
       </c>
       <c r="O32" t="n">
-        <v>2884.8</v>
+        <v>4095.8</v>
       </c>
       <c r="P32" t="n">
-        <v>105</v>
+        <v>572.2</v>
       </c>
       <c r="Q32" t="n">
-        <v>100.8</v>
+        <v>99</v>
       </c>
       <c r="R32" t="n">
-        <v>3.8</v>
+        <v>14.3</v>
       </c>
       <c r="S32" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>2784.0 (±100.8)</t>
+          <t>3996.8 (±99.0)</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>105.0 (±100.8)</t>
+          <t>572.2 (±99.0)</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>3.8% (±3.7%)</t>
+          <t>14.3% (±2.7%)</t>
         </is>
       </c>
       <c r="W32" t="n">
-        <v>213220</v>
+        <v>302248</v>
       </c>
       <c r="X32" t="n">
-        <v>49.2</v>
+        <v>189.3</v>
       </c>
       <c r="Y32" t="n">
-        <v>47.3</v>
+        <v>32.8</v>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>49.2(±47.3)</t>
+          <t>189.3(±32.8)</t>
         </is>
       </c>
     </row>
@@ -3415,87 +3415,87 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>2020</v>
       </c>
       <c r="D33" t="n">
-        <v>4569</v>
+        <v>7029</v>
       </c>
       <c r="E33" t="n">
-        <v>4040</v>
+        <v>6059</v>
       </c>
       <c r="F33" t="n">
-        <v>4027</v>
+        <v>5979</v>
       </c>
       <c r="G33" t="n">
-        <v>3922</v>
+        <v>5849</v>
       </c>
       <c r="H33" t="n">
-        <v>3882</v>
+        <v>5835</v>
       </c>
       <c r="I33" t="n">
-        <v>3729</v>
+        <v>5645</v>
       </c>
       <c r="J33" t="n">
-        <v>3996.8</v>
+        <v>5983.000000000001</v>
       </c>
       <c r="K33" t="n">
-        <v>112.9</v>
+        <v>141.3</v>
       </c>
       <c r="L33" t="n">
         <v>1.96</v>
       </c>
       <c r="M33" t="n">
-        <v>99</v>
+        <v>123.9</v>
       </c>
       <c r="N33" t="n">
-        <v>3897.8</v>
+        <v>5859.100000000001</v>
       </c>
       <c r="O33" t="n">
-        <v>4095.8</v>
+        <v>6106.900000000001</v>
       </c>
       <c r="P33" t="n">
-        <v>572.2</v>
+        <v>1046</v>
       </c>
       <c r="Q33" t="n">
-        <v>99</v>
+        <v>123.9</v>
       </c>
       <c r="R33" t="n">
-        <v>14.3</v>
+        <v>17.5</v>
       </c>
       <c r="S33" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>3996.8 (±99.0)</t>
+          <t>5983.0 (±123.9)</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>572.2 (±99.0)</t>
+          <t>1046.0 (±123.9)</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>14.3% (±2.7%)</t>
+          <t>17.5% (±2.4%)</t>
         </is>
       </c>
       <c r="W33" t="n">
-        <v>302248</v>
+        <v>205259</v>
       </c>
       <c r="X33" t="n">
-        <v>189.3</v>
+        <v>509.6</v>
       </c>
       <c r="Y33" t="n">
-        <v>32.8</v>
+        <v>60.4</v>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>189.3(±32.8)</t>
+          <t>509.6(±60.4)</t>
         </is>
       </c>
     </row>
@@ -3507,87 +3507,87 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>2020</v>
       </c>
       <c r="D34" t="n">
-        <v>7029</v>
+        <v>2962</v>
       </c>
       <c r="E34" t="n">
-        <v>6059</v>
+        <v>2373</v>
       </c>
       <c r="F34" t="n">
-        <v>5979</v>
+        <v>2420</v>
       </c>
       <c r="G34" t="n">
-        <v>5849</v>
+        <v>2450</v>
       </c>
       <c r="H34" t="n">
-        <v>5835</v>
+        <v>2550</v>
       </c>
       <c r="I34" t="n">
-        <v>5645</v>
+        <v>2467</v>
       </c>
       <c r="J34" t="n">
-        <v>5983.000000000001</v>
+        <v>2501.6</v>
       </c>
       <c r="K34" t="n">
-        <v>141.3</v>
+        <v>58.5</v>
       </c>
       <c r="L34" t="n">
         <v>1.96</v>
       </c>
       <c r="M34" t="n">
-        <v>123.9</v>
+        <v>51.3</v>
       </c>
       <c r="N34" t="n">
-        <v>5859.100000000001</v>
+        <v>2450.3</v>
       </c>
       <c r="O34" t="n">
-        <v>6106.900000000001</v>
+        <v>2552.900000000001</v>
       </c>
       <c r="P34" t="n">
-        <v>1046</v>
+        <v>460.4</v>
       </c>
       <c r="Q34" t="n">
-        <v>123.9</v>
+        <v>51.3</v>
       </c>
       <c r="R34" t="n">
-        <v>17.5</v>
+        <v>18.4</v>
       </c>
       <c r="S34" t="n">
         <v>2.4</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>5983.0 (±123.9)</t>
+          <t>2501.6 (±51.3)</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>1046.0 (±123.9)</t>
+          <t>460.4 (±51.3)</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>17.5% (±2.4%)</t>
+          <t>18.4% (±2.4%)</t>
         </is>
       </c>
       <c r="W34" t="n">
-        <v>205259</v>
+        <v>124926</v>
       </c>
       <c r="X34" t="n">
-        <v>509.6</v>
+        <v>368.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>60.4</v>
+        <v>41.1</v>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>509.6(±60.4)</t>
+          <t>368.5(±41.1)</t>
         </is>
       </c>
     </row>
@@ -3599,87 +3599,87 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>2020</v>
       </c>
       <c r="D35" t="n">
-        <v>2962</v>
+        <v>224</v>
       </c>
       <c r="E35" t="n">
-        <v>2373</v>
+        <v>224</v>
       </c>
       <c r="F35" t="n">
-        <v>2420</v>
+        <v>186</v>
       </c>
       <c r="G35" t="n">
-        <v>2450</v>
+        <v>221</v>
       </c>
       <c r="H35" t="n">
-        <v>2550</v>
+        <v>228</v>
       </c>
       <c r="I35" t="n">
-        <v>2467</v>
+        <v>221</v>
       </c>
       <c r="J35" t="n">
-        <v>2501.6</v>
+        <v>220</v>
       </c>
       <c r="K35" t="n">
-        <v>58.5</v>
+        <v>15.2</v>
       </c>
       <c r="L35" t="n">
         <v>1.96</v>
       </c>
       <c r="M35" t="n">
-        <v>51.3</v>
+        <v>13.3</v>
       </c>
       <c r="N35" t="n">
-        <v>2450.3</v>
+        <v>206.7</v>
       </c>
       <c r="O35" t="n">
-        <v>2552.900000000001</v>
+        <v>233.3</v>
       </c>
       <c r="P35" t="n">
-        <v>460.4</v>
+        <v>4</v>
       </c>
       <c r="Q35" t="n">
-        <v>51.3</v>
+        <v>13.3</v>
       </c>
       <c r="R35" t="n">
-        <v>18.4</v>
+        <v>1.8</v>
       </c>
       <c r="S35" t="n">
-        <v>2.4</v>
+        <v>5.8</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>2501.6 (±51.3)</t>
+          <t>220.0 (±13.3)</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>460.4 (±51.3)</t>
+          <t>4.0 (±13.3)</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>18.4% (±2.4%)</t>
+          <t>1.8% (±5.8%)</t>
         </is>
       </c>
       <c r="W35" t="n">
-        <v>124926</v>
+        <v>21813</v>
       </c>
       <c r="X35" t="n">
-        <v>368.5</v>
+        <v>18.3</v>
       </c>
       <c r="Y35" t="n">
-        <v>41.1</v>
+        <v>61</v>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>368.5(±41.1)</t>
+          <t>18.3(±61.0)</t>
         </is>
       </c>
     </row>
@@ -3691,87 +3691,87 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>2020</v>
       </c>
       <c r="D36" t="n">
-        <v>224</v>
+        <v>6826</v>
       </c>
       <c r="E36" t="n">
-        <v>224</v>
+        <v>6384</v>
       </c>
       <c r="F36" t="n">
-        <v>186</v>
+        <v>6260</v>
       </c>
       <c r="G36" t="n">
-        <v>221</v>
+        <v>6005</v>
       </c>
       <c r="H36" t="n">
-        <v>228</v>
+        <v>6146</v>
       </c>
       <c r="I36" t="n">
-        <v>221</v>
+        <v>5953</v>
       </c>
       <c r="J36" t="n">
-        <v>220</v>
+        <v>6269.600000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>15.2</v>
+        <v>159.2</v>
       </c>
       <c r="L36" t="n">
         <v>1.96</v>
       </c>
       <c r="M36" t="n">
-        <v>13.3</v>
+        <v>139.5</v>
       </c>
       <c r="N36" t="n">
-        <v>206.7</v>
+        <v>6130.100000000001</v>
       </c>
       <c r="O36" t="n">
-        <v>233.3</v>
+        <v>6409.100000000001</v>
       </c>
       <c r="P36" t="n">
-        <v>4</v>
+        <v>556.4</v>
       </c>
       <c r="Q36" t="n">
-        <v>13.3</v>
+        <v>139.5</v>
       </c>
       <c r="R36" t="n">
-        <v>1.8</v>
+        <v>8.9</v>
       </c>
       <c r="S36" t="n">
-        <v>5.8</v>
+        <v>2.4</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>220.0 (±13.3)</t>
+          <t>6269.6 (±139.5)</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>4.0 (±13.3)</t>
+          <t>556.4 (±139.5)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>1.8% (±5.8%)</t>
+          <t>8.9% (±2.4%)</t>
         </is>
       </c>
       <c r="W36" t="n">
-        <v>21813</v>
+        <v>315679</v>
       </c>
       <c r="X36" t="n">
-        <v>18.3</v>
+        <v>176.3</v>
       </c>
       <c r="Y36" t="n">
-        <v>61</v>
+        <v>44.1</v>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>18.3(±61.0)</t>
+          <t>176.3(±44.1)</t>
         </is>
       </c>
     </row>
@@ -3783,87 +3783,87 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>2020</v>
       </c>
       <c r="D37" t="n">
-        <v>6826</v>
+        <v>2145</v>
       </c>
       <c r="E37" t="n">
-        <v>6384</v>
+        <v>2314</v>
       </c>
       <c r="F37" t="n">
-        <v>6260</v>
+        <v>2195</v>
       </c>
       <c r="G37" t="n">
-        <v>6005</v>
+        <v>2089</v>
       </c>
       <c r="H37" t="n">
-        <v>6146</v>
+        <v>2105</v>
       </c>
       <c r="I37" t="n">
-        <v>5953</v>
+        <v>2114</v>
       </c>
       <c r="J37" t="n">
-        <v>6269.600000000001</v>
+        <v>2205</v>
       </c>
       <c r="K37" t="n">
-        <v>159.2</v>
+        <v>83.7</v>
       </c>
       <c r="L37" t="n">
         <v>1.96</v>
       </c>
       <c r="M37" t="n">
-        <v>139.5</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="N37" t="n">
-        <v>6130.100000000001</v>
+        <v>2131.6</v>
       </c>
       <c r="O37" t="n">
-        <v>6409.100000000001</v>
+        <v>2278.400000000001</v>
       </c>
       <c r="P37" t="n">
-        <v>556.4</v>
+        <v>-60</v>
       </c>
       <c r="Q37" t="n">
-        <v>139.5</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="R37" t="n">
-        <v>8.9</v>
+        <v>-2.7</v>
       </c>
       <c r="S37" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>6269.6 (±139.5)</t>
+          <t>2205.0 (±73.4)</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>556.4 (±139.5)</t>
+          <t>-60.0 (±73.4)</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>8.9% (±2.4%)</t>
+          <t>-2.7% (±3.2%)</t>
         </is>
       </c>
       <c r="W37" t="n">
-        <v>315679</v>
+        <v>155734</v>
       </c>
       <c r="X37" t="n">
-        <v>176.3</v>
+        <v>-38.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>44.1</v>
+        <v>47.1</v>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>176.3(±44.1)</t>
+          <t>-38.5(±47.1)</t>
         </is>
       </c>
     </row>
@@ -3875,87 +3875,87 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>2020</v>
       </c>
       <c r="D38" t="n">
-        <v>2145</v>
+        <v>807</v>
       </c>
       <c r="E38" t="n">
-        <v>2314</v>
+        <v>695</v>
       </c>
       <c r="F38" t="n">
-        <v>2195</v>
+        <v>727</v>
       </c>
       <c r="G38" t="n">
-        <v>2089</v>
+        <v>720</v>
       </c>
       <c r="H38" t="n">
-        <v>2105</v>
+        <v>723</v>
       </c>
       <c r="I38" t="n">
-        <v>2114</v>
+        <v>752</v>
       </c>
       <c r="J38" t="n">
-        <v>2205</v>
+        <v>737.8000000000001</v>
       </c>
       <c r="K38" t="n">
-        <v>83.7</v>
+        <v>18.2</v>
       </c>
       <c r="L38" t="n">
         <v>1.96</v>
       </c>
       <c r="M38" t="n">
-        <v>73.40000000000001</v>
+        <v>16</v>
       </c>
       <c r="N38" t="n">
-        <v>2131.6</v>
+        <v>721.8000000000001</v>
       </c>
       <c r="O38" t="n">
-        <v>2278.400000000001</v>
+        <v>753.8000000000001</v>
       </c>
       <c r="P38" t="n">
-        <v>-60</v>
+        <v>69.2</v>
       </c>
       <c r="Q38" t="n">
-        <v>73.40000000000001</v>
+        <v>16</v>
       </c>
       <c r="R38" t="n">
-        <v>-2.7</v>
+        <v>9.4</v>
       </c>
       <c r="S38" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>2205.0 (±73.4)</t>
+          <t>737.8 (±16.0)</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>-60.0 (±73.4)</t>
+          <t>69.2 (±16.0)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>-2.7% (±3.2%)</t>
+          <t>9.4% (±2.3%)</t>
         </is>
       </c>
       <c r="W38" t="n">
-        <v>155734</v>
+        <v>32108</v>
       </c>
       <c r="X38" t="n">
-        <v>-38.5</v>
+        <v>215.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>47.1</v>
+        <v>49.9</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>-38.5(±47.1)</t>
+          <t>215.5(±49.9)</t>
         </is>
       </c>
     </row>
@@ -3967,87 +3967,87 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>2020</v>
       </c>
       <c r="D39" t="n">
-        <v>807</v>
+        <v>2151</v>
       </c>
       <c r="E39" t="n">
-        <v>695</v>
+        <v>2596</v>
       </c>
       <c r="F39" t="n">
-        <v>727</v>
+        <v>2514</v>
       </c>
       <c r="G39" t="n">
-        <v>720</v>
+        <v>2400</v>
       </c>
       <c r="H39" t="n">
-        <v>723</v>
+        <v>2308</v>
       </c>
       <c r="I39" t="n">
-        <v>752</v>
+        <v>2199</v>
       </c>
       <c r="J39" t="n">
-        <v>737.8000000000001</v>
+        <v>2438.6</v>
       </c>
       <c r="K39" t="n">
-        <v>18.2</v>
+        <v>141.6</v>
       </c>
       <c r="L39" t="n">
         <v>1.96</v>
       </c>
       <c r="M39" t="n">
-        <v>16</v>
+        <v>124.1</v>
       </c>
       <c r="N39" t="n">
-        <v>721.8000000000001</v>
+        <v>2314.5</v>
       </c>
       <c r="O39" t="n">
-        <v>753.8000000000001</v>
+        <v>2562.7</v>
       </c>
       <c r="P39" t="n">
-        <v>69.2</v>
+        <v>-287.6</v>
       </c>
       <c r="Q39" t="n">
-        <v>16</v>
+        <v>124.1</v>
       </c>
       <c r="R39" t="n">
-        <v>9.4</v>
+        <v>-11.8</v>
       </c>
       <c r="S39" t="n">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>737.8 (±16.0)</t>
+          <t>2438.6 (±124.1)</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>69.2 (±16.0)</t>
+          <t>-287.6 (±124.1)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>9.4% (±2.3%)</t>
+          <t>-11.8% (±4.3%)</t>
         </is>
       </c>
       <c r="W39" t="n">
-        <v>32108</v>
+        <v>171275</v>
       </c>
       <c r="X39" t="n">
-        <v>215.5</v>
+        <v>-167.9</v>
       </c>
       <c r="Y39" t="n">
-        <v>49.9</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>215.5(±49.9)</t>
+          <t>-167.9(±72.4)</t>
         </is>
       </c>
     </row>
@@ -4059,87 +4059,87 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>2020</v>
       </c>
       <c r="D40" t="n">
-        <v>2151</v>
+        <v>24034</v>
       </c>
       <c r="E40" t="n">
-        <v>2596</v>
+        <v>23344</v>
       </c>
       <c r="F40" t="n">
-        <v>2514</v>
+        <v>22913</v>
       </c>
       <c r="G40" t="n">
-        <v>2400</v>
+        <v>22656</v>
       </c>
       <c r="H40" t="n">
-        <v>2308</v>
+        <v>22558</v>
       </c>
       <c r="I40" t="n">
-        <v>2199</v>
+        <v>21980</v>
       </c>
       <c r="J40" t="n">
-        <v>2438.6</v>
+        <v>23116.6</v>
       </c>
       <c r="K40" t="n">
-        <v>141.6</v>
+        <v>447.2</v>
       </c>
       <c r="L40" t="n">
         <v>1.96</v>
       </c>
       <c r="M40" t="n">
-        <v>124.1</v>
+        <v>392</v>
       </c>
       <c r="N40" t="n">
-        <v>2314.5</v>
+        <v>22724.6</v>
       </c>
       <c r="O40" t="n">
-        <v>2562.7</v>
+        <v>23508.6</v>
       </c>
       <c r="P40" t="n">
-        <v>-287.6</v>
+        <v>917.4</v>
       </c>
       <c r="Q40" t="n">
-        <v>124.1</v>
+        <v>392</v>
       </c>
       <c r="R40" t="n">
-        <v>-11.8</v>
+        <v>4</v>
       </c>
       <c r="S40" t="n">
-        <v>4.3</v>
+        <v>1.8</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>2438.6 (±124.1)</t>
+          <t>23116.6 (±392.0)</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>-287.6 (±124.1)</t>
+          <t>917.4 (±392.0)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>-11.8% (±4.3%)</t>
+          <t>4.0% (±1.8%)</t>
         </is>
       </c>
       <c r="W40" t="n">
-        <v>171275</v>
+        <v>1835511</v>
       </c>
       <c r="X40" t="n">
-        <v>-167.9</v>
+        <v>50</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.40000000000001</v>
+        <v>21.3</v>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>-167.9(±72.4)</t>
+          <t>50.0(±21.3)</t>
         </is>
       </c>
     </row>
@@ -4151,87 +4151,87 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>2020</v>
       </c>
       <c r="D41" t="n">
-        <v>24034</v>
+        <v>4363</v>
       </c>
       <c r="E41" t="n">
-        <v>23344</v>
+        <v>4223</v>
       </c>
       <c r="F41" t="n">
-        <v>22913</v>
+        <v>3857</v>
       </c>
       <c r="G41" t="n">
-        <v>22656</v>
+        <v>3886</v>
       </c>
       <c r="H41" t="n">
-        <v>22558</v>
+        <v>3800</v>
       </c>
       <c r="I41" t="n">
-        <v>21980</v>
+        <v>3874</v>
       </c>
       <c r="J41" t="n">
-        <v>23116.6</v>
+        <v>4015.2</v>
       </c>
       <c r="K41" t="n">
-        <v>447.2</v>
+        <v>150.4</v>
       </c>
       <c r="L41" t="n">
         <v>1.96</v>
       </c>
       <c r="M41" t="n">
-        <v>392</v>
+        <v>131.8</v>
       </c>
       <c r="N41" t="n">
-        <v>22724.6</v>
+        <v>3883.4</v>
       </c>
       <c r="O41" t="n">
-        <v>23508.6</v>
+        <v>4147</v>
       </c>
       <c r="P41" t="n">
-        <v>917.4</v>
+        <v>347.8</v>
       </c>
       <c r="Q41" t="n">
-        <v>392</v>
+        <v>131.8</v>
       </c>
       <c r="R41" t="n">
-        <v>4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S41" t="n">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>23116.6 (±392.0)</t>
+          <t>4015.2 (±131.8)</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>917.4 (±392.0)</t>
+          <t>347.8 (±131.8)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>4.0% (±1.8%)</t>
+          <t>8.7% (±3.5%)</t>
         </is>
       </c>
       <c r="W41" t="n">
-        <v>1835511</v>
+        <v>285945</v>
       </c>
       <c r="X41" t="n">
-        <v>50</v>
+        <v>121.6</v>
       </c>
       <c r="Y41" t="n">
-        <v>21.3</v>
+        <v>46.1</v>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>50.0(±21.3)</t>
+          <t>121.6(±46.1)</t>
         </is>
       </c>
     </row>
@@ -4243,87 +4243,87 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>2020</v>
       </c>
       <c r="D42" t="n">
-        <v>4363</v>
+        <v>8795</v>
       </c>
       <c r="E42" t="n">
-        <v>4223</v>
+        <v>6525</v>
       </c>
       <c r="F42" t="n">
-        <v>3857</v>
+        <v>7019</v>
       </c>
       <c r="G42" t="n">
-        <v>3886</v>
+        <v>6942</v>
       </c>
       <c r="H42" t="n">
-        <v>3800</v>
+        <v>7332</v>
       </c>
       <c r="I42" t="n">
-        <v>3874</v>
+        <v>7279</v>
       </c>
       <c r="J42" t="n">
-        <v>4015.2</v>
+        <v>7139.4</v>
       </c>
       <c r="K42" t="n">
-        <v>150.4</v>
+        <v>288.3</v>
       </c>
       <c r="L42" t="n">
         <v>1.96</v>
       </c>
       <c r="M42" t="n">
-        <v>131.8</v>
+        <v>252.7</v>
       </c>
       <c r="N42" t="n">
-        <v>3883.4</v>
+        <v>6886.7</v>
       </c>
       <c r="O42" t="n">
-        <v>4147</v>
+        <v>7392.099999999999</v>
       </c>
       <c r="P42" t="n">
-        <v>347.8</v>
+        <v>1655.6</v>
       </c>
       <c r="Q42" t="n">
-        <v>131.8</v>
+        <v>252.7</v>
       </c>
       <c r="R42" t="n">
-        <v>8.699999999999999</v>
+        <v>23.2</v>
       </c>
       <c r="S42" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>4015.2 (±131.8)</t>
+          <t>7139.4 (±252.7)</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>347.8 (±131.8)</t>
+          <t>1655.6 (±252.7)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>8.7% (±3.5%)</t>
+          <t>23.2% (±4.2%)</t>
         </is>
       </c>
       <c r="W42" t="n">
-        <v>285945</v>
+        <v>277065</v>
       </c>
       <c r="X42" t="n">
-        <v>121.6</v>
+        <v>597.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>46.1</v>
+        <v>91.3</v>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>121.6(±46.1)</t>
+          <t>597.5(±91.3)</t>
         </is>
       </c>
     </row>
@@ -4335,87 +4335,87 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>2020</v>
       </c>
       <c r="D43" t="n">
-        <v>8792</v>
+        <v>86</v>
       </c>
       <c r="E43" t="n">
-        <v>6525</v>
+        <v>78</v>
       </c>
       <c r="F43" t="n">
-        <v>7019</v>
+        <v>73</v>
       </c>
       <c r="G43" t="n">
-        <v>6942</v>
+        <v>80</v>
       </c>
       <c r="H43" t="n">
-        <v>7332</v>
+        <v>69</v>
       </c>
       <c r="I43" t="n">
-        <v>7278</v>
+        <v>87</v>
       </c>
       <c r="J43" t="n">
-        <v>7139.2</v>
+        <v>79.79999999999998</v>
       </c>
       <c r="K43" t="n">
-        <v>288.1</v>
+        <v>6.2</v>
       </c>
       <c r="L43" t="n">
         <v>1.96</v>
       </c>
       <c r="M43" t="n">
-        <v>252.5</v>
+        <v>5.4</v>
       </c>
       <c r="N43" t="n">
-        <v>6886.7</v>
+        <v>74.39999999999998</v>
       </c>
       <c r="O43" t="n">
-        <v>7391.7</v>
+        <v>85.19999999999999</v>
       </c>
       <c r="P43" t="n">
-        <v>1652.8</v>
+        <v>6.2</v>
       </c>
       <c r="Q43" t="n">
-        <v>252.5</v>
+        <v>5.4</v>
       </c>
       <c r="R43" t="n">
-        <v>23.2</v>
+        <v>7.8</v>
       </c>
       <c r="S43" t="n">
-        <v>4.3</v>
+        <v>6.9</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>7139.2 (±252.5)</t>
+          <t>79.8 (±5.4)</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>1652.8 (±252.5)</t>
+          <t>6.2 (±5.4)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>23.2% (±4.3%)</t>
+          <t>7.8% (±6.9%)</t>
         </is>
       </c>
       <c r="W43" t="n">
-        <v>277065</v>
+        <v>8550</v>
       </c>
       <c r="X43" t="n">
-        <v>596.5</v>
+        <v>72.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>91.2</v>
+        <v>63.2</v>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>596.5(±91.2)</t>
+          <t>72.5(±63.2)</t>
         </is>
       </c>
     </row>
@@ -4427,87 +4427,87 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>2020</v>
       </c>
       <c r="D44" t="n">
-        <v>86</v>
+        <v>20940</v>
       </c>
       <c r="E44" t="n">
-        <v>78</v>
+        <v>19839</v>
       </c>
       <c r="F44" t="n">
-        <v>73</v>
+        <v>19094</v>
       </c>
       <c r="G44" t="n">
-        <v>80</v>
+        <v>18098</v>
       </c>
       <c r="H44" t="n">
-        <v>69</v>
+        <v>17400</v>
       </c>
       <c r="I44" t="n">
-        <v>87</v>
+        <v>16617</v>
       </c>
       <c r="J44" t="n">
-        <v>79.79999999999998</v>
+        <v>18608</v>
       </c>
       <c r="K44" t="n">
-        <v>6.2</v>
+        <v>1152.5</v>
       </c>
       <c r="L44" t="n">
         <v>1.96</v>
       </c>
       <c r="M44" t="n">
-        <v>5.4</v>
+        <v>1010.2</v>
       </c>
       <c r="N44" t="n">
-        <v>74.39999999999998</v>
+        <v>17597.8</v>
       </c>
       <c r="O44" t="n">
-        <v>85.19999999999999</v>
+        <v>19618.2</v>
       </c>
       <c r="P44" t="n">
-        <v>6.2</v>
+        <v>2332</v>
       </c>
       <c r="Q44" t="n">
-        <v>5.4</v>
+        <v>1010.2</v>
       </c>
       <c r="R44" t="n">
-        <v>7.8</v>
+        <v>12.5</v>
       </c>
       <c r="S44" t="n">
-        <v>6.9</v>
+        <v>5.8</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>79.8 (±5.4)</t>
+          <t>18608.0 (±1010.2)</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>6.2 (±5.4)</t>
+          <t>2332.0 (±1010.2)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>7.8% (±6.9%)</t>
+          <t>12.5% (±5.8%)</t>
         </is>
       </c>
       <c r="W44" t="n">
-        <v>8550</v>
+        <v>1652740</v>
       </c>
       <c r="X44" t="n">
-        <v>72.5</v>
+        <v>141.1</v>
       </c>
       <c r="Y44" t="n">
-        <v>63.2</v>
+        <v>61.1</v>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>72.5(±63.2)</t>
+          <t>141.1(±61.1)</t>
         </is>
       </c>
     </row>
@@ -4519,87 +4519,87 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>2020</v>
       </c>
       <c r="D45" t="n">
-        <v>20940</v>
+        <v>1368</v>
       </c>
       <c r="E45" t="n">
-        <v>19839</v>
+        <v>1229</v>
       </c>
       <c r="F45" t="n">
-        <v>19094</v>
+        <v>1290</v>
       </c>
       <c r="G45" t="n">
-        <v>18098</v>
+        <v>1305</v>
       </c>
       <c r="H45" t="n">
-        <v>17400</v>
+        <v>1321</v>
       </c>
       <c r="I45" t="n">
-        <v>16617</v>
+        <v>1246</v>
       </c>
       <c r="J45" t="n">
-        <v>18608</v>
+        <v>1305.4</v>
       </c>
       <c r="K45" t="n">
-        <v>1152.5</v>
+        <v>35.1</v>
       </c>
       <c r="L45" t="n">
         <v>1.96</v>
       </c>
       <c r="M45" t="n">
-        <v>1010.2</v>
+        <v>30.8</v>
       </c>
       <c r="N45" t="n">
-        <v>17597.8</v>
+        <v>1274.6</v>
       </c>
       <c r="O45" t="n">
-        <v>19618.2</v>
+        <v>1336.2</v>
       </c>
       <c r="P45" t="n">
-        <v>2332</v>
+        <v>62.6</v>
       </c>
       <c r="Q45" t="n">
-        <v>1010.2</v>
+        <v>30.8</v>
       </c>
       <c r="R45" t="n">
-        <v>12.5</v>
+        <v>4.8</v>
       </c>
       <c r="S45" t="n">
-        <v>5.8</v>
+        <v>2.4</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>18608.0 (±1010.2)</t>
+          <t>1305.4 (±30.8)</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>2332.0 (±1010.2)</t>
+          <t>62.6 (±30.8)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>12.5% (±5.8%)</t>
+          <t>4.8% (±2.4%)</t>
         </is>
       </c>
       <c r="W45" t="n">
-        <v>1652740</v>
+        <v>43882</v>
       </c>
       <c r="X45" t="n">
-        <v>141.1</v>
+        <v>142.7</v>
       </c>
       <c r="Y45" t="n">
-        <v>61.1</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>141.1(±61.1)</t>
+          <t>142.7(±70.1)</t>
         </is>
       </c>
     </row>
@@ -4611,87 +4611,87 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>2020</v>
       </c>
       <c r="D46" t="n">
-        <v>1368</v>
+        <v>2078</v>
       </c>
       <c r="E46" t="n">
-        <v>1229</v>
+        <v>1878</v>
       </c>
       <c r="F46" t="n">
-        <v>1290</v>
+        <v>1734</v>
       </c>
       <c r="G46" t="n">
-        <v>1305</v>
+        <v>1690</v>
       </c>
       <c r="H46" t="n">
-        <v>1321</v>
+        <v>1737</v>
       </c>
       <c r="I46" t="n">
-        <v>1246</v>
+        <v>1752</v>
       </c>
       <c r="J46" t="n">
-        <v>1305.4</v>
+        <v>1795</v>
       </c>
       <c r="K46" t="n">
-        <v>35.1</v>
+        <v>63.4</v>
       </c>
       <c r="L46" t="n">
         <v>1.96</v>
       </c>
       <c r="M46" t="n">
-        <v>30.8</v>
+        <v>55.6</v>
       </c>
       <c r="N46" t="n">
-        <v>1274.6</v>
+        <v>1739.4</v>
       </c>
       <c r="O46" t="n">
-        <v>1336.2</v>
+        <v>1850.6</v>
       </c>
       <c r="P46" t="n">
-        <v>62.6</v>
+        <v>283</v>
       </c>
       <c r="Q46" t="n">
-        <v>30.8</v>
+        <v>55.6</v>
       </c>
       <c r="R46" t="n">
-        <v>4.8</v>
+        <v>15.8</v>
       </c>
       <c r="S46" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>1305.4 (±30.8)</t>
+          <t>1795.0 (±55.6)</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>62.6 (±30.8)</t>
+          <t>283.0 (±55.6)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>4.8% (±2.4%)</t>
+          <t>15.8% (±3.5%)</t>
         </is>
       </c>
       <c r="W46" t="n">
-        <v>43882</v>
+        <v>62138</v>
       </c>
       <c r="X46" t="n">
-        <v>142.7</v>
+        <v>455.4</v>
       </c>
       <c r="Y46" t="n">
-        <v>70.09999999999999</v>
+        <v>89.5</v>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>142.7(±70.1)</t>
+          <t>455.4(±89.5)</t>
         </is>
       </c>
     </row>
@@ -4703,87 +4703,87 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Liechtenstein</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>2020</v>
       </c>
       <c r="D47" t="n">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="E47" t="n">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="F47" t="n">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="G47" t="n">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="H47" t="n">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="I47" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="J47" t="n">
-        <v>13.6</v>
+        <v>165.8</v>
       </c>
       <c r="K47" t="n">
-        <v>2.7</v>
+        <v>25</v>
       </c>
       <c r="L47" t="n">
         <v>1.96</v>
       </c>
       <c r="M47" t="n">
-        <v>2.4</v>
+        <v>21.9</v>
       </c>
       <c r="N47" t="n">
-        <v>11.2</v>
+        <v>143.9</v>
       </c>
       <c r="O47" t="n">
-        <v>16</v>
+        <v>187.7</v>
       </c>
       <c r="P47" t="n">
-        <v>-0.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.4</v>
+        <v>21.9</v>
       </c>
       <c r="R47" t="n">
-        <v>-4.4</v>
+        <v>1.3</v>
       </c>
       <c r="S47" t="n">
-        <v>14.3</v>
+        <v>11.8</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>13.6 (±2.4)</t>
+          <t>165.8 (±21.9)</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>-0.6 (±2.4)</t>
+          <t>2.2 (±21.9)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>-4.4% (±14.3%)</t>
+          <t>1.3% (±11.8%)</t>
         </is>
       </c>
       <c r="W47" t="n">
-        <v>1056</v>
+        <v>13597</v>
       </c>
       <c r="X47" t="n">
-        <v>-56.8</v>
+        <v>16.2</v>
       </c>
       <c r="Y47" t="n">
-        <v>227.3</v>
+        <v>161</v>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>-56.8(±227.3)</t>
+          <t>16.2(±161.0)</t>
         </is>
       </c>
     </row>
@@ -4795,87 +4795,87 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>2020</v>
       </c>
       <c r="D48" t="n">
-        <v>2078</v>
+        <v>147</v>
       </c>
       <c r="E48" t="n">
-        <v>1878</v>
+        <v>165</v>
       </c>
       <c r="F48" t="n">
-        <v>1734</v>
+        <v>141</v>
       </c>
       <c r="G48" t="n">
-        <v>1690</v>
+        <v>153</v>
       </c>
       <c r="H48" t="n">
-        <v>1737</v>
+        <v>158</v>
       </c>
       <c r="I48" t="n">
-        <v>1752</v>
+        <v>153</v>
       </c>
       <c r="J48" t="n">
-        <v>1795</v>
+        <v>159.6</v>
       </c>
       <c r="K48" t="n">
-        <v>63.4</v>
+        <v>7.8</v>
       </c>
       <c r="L48" t="n">
         <v>1.96</v>
       </c>
       <c r="M48" t="n">
-        <v>55.6</v>
+        <v>6.8</v>
       </c>
       <c r="N48" t="n">
-        <v>1739.4</v>
+        <v>152.8</v>
       </c>
       <c r="O48" t="n">
-        <v>1850.6</v>
+        <v>166.4</v>
       </c>
       <c r="P48" t="n">
-        <v>283</v>
+        <v>-12.6</v>
       </c>
       <c r="Q48" t="n">
-        <v>55.6</v>
+        <v>6.8</v>
       </c>
       <c r="R48" t="n">
-        <v>15.8</v>
+        <v>-7.9</v>
       </c>
       <c r="S48" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>1795.0 (±55.6)</t>
+          <t>159.6 (±6.8)</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>283.0 (±55.6)</t>
+          <t>-12.6 (±6.8)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>15.8% (±3.5%)</t>
+          <t>-7.9% (±3.8%)</t>
         </is>
       </c>
       <c r="W48" t="n">
-        <v>62138</v>
+        <v>14037</v>
       </c>
       <c r="X48" t="n">
-        <v>455.4</v>
+        <v>-89.8</v>
       </c>
       <c r="Y48" t="n">
-        <v>89.5</v>
+        <v>48.5</v>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>455.4(±89.5)</t>
+          <t>-89.8(±48.5)</t>
         </is>
       </c>
     </row>
@@ -4887,87 +4887,87 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>2020</v>
       </c>
       <c r="D49" t="n">
-        <v>168</v>
+        <v>470</v>
       </c>
       <c r="E49" t="n">
-        <v>136</v>
+        <v>289</v>
       </c>
       <c r="F49" t="n">
-        <v>161</v>
+        <v>364</v>
       </c>
       <c r="G49" t="n">
-        <v>210</v>
+        <v>337</v>
       </c>
       <c r="H49" t="n">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="I49" t="n">
-        <v>150</v>
+        <v>373</v>
       </c>
       <c r="J49" t="n">
-        <v>165.8</v>
+        <v>351.4</v>
       </c>
       <c r="K49" t="n">
-        <v>25</v>
+        <v>31.5</v>
       </c>
       <c r="L49" t="n">
         <v>1.96</v>
       </c>
       <c r="M49" t="n">
-        <v>21.9</v>
+        <v>27.6</v>
       </c>
       <c r="N49" t="n">
-        <v>143.9</v>
+        <v>323.8</v>
       </c>
       <c r="O49" t="n">
-        <v>187.7</v>
+        <v>379</v>
       </c>
       <c r="P49" t="n">
-        <v>2.2</v>
+        <v>118.6</v>
       </c>
       <c r="Q49" t="n">
-        <v>21.9</v>
+        <v>27.6</v>
       </c>
       <c r="R49" t="n">
-        <v>1.3</v>
+        <v>33.8</v>
       </c>
       <c r="S49" t="n">
-        <v>11.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>165.8 (±21.9)</t>
+          <t>351.4 (±27.6)</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>2.2 (±21.9)</t>
+          <t>118.6 (±27.6)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>1.3% (±11.8%)</t>
+          <t>33.8% (±9.8%)</t>
         </is>
       </c>
       <c r="W49" t="n">
-        <v>13597</v>
+        <v>16954</v>
       </c>
       <c r="X49" t="n">
-        <v>16.2</v>
+        <v>699.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>161</v>
+        <v>162.8</v>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>16.2(±161.0)</t>
+          <t>699.5(±162.8)</t>
         </is>
       </c>
     </row>
@@ -4979,87 +4979,87 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>2020</v>
       </c>
       <c r="D50" t="n">
-        <v>147</v>
+        <v>5745</v>
       </c>
       <c r="E50" t="n">
-        <v>165</v>
+        <v>6058</v>
       </c>
       <c r="F50" t="n">
-        <v>141</v>
+        <v>5581</v>
       </c>
       <c r="G50" t="n">
-        <v>153</v>
+        <v>5310</v>
       </c>
       <c r="H50" t="n">
-        <v>158</v>
+        <v>5309</v>
       </c>
       <c r="I50" t="n">
-        <v>153</v>
+        <v>5144</v>
       </c>
       <c r="J50" t="n">
-        <v>159.6</v>
+        <v>5589.2</v>
       </c>
       <c r="K50" t="n">
-        <v>7.8</v>
+        <v>321</v>
       </c>
       <c r="L50" t="n">
         <v>1.96</v>
       </c>
       <c r="M50" t="n">
-        <v>6.8</v>
+        <v>281.4</v>
       </c>
       <c r="N50" t="n">
-        <v>152.8</v>
+        <v>5307.8</v>
       </c>
       <c r="O50" t="n">
-        <v>166.4</v>
+        <v>5870.599999999999</v>
       </c>
       <c r="P50" t="n">
-        <v>-12.6</v>
+        <v>155.8</v>
       </c>
       <c r="Q50" t="n">
-        <v>6.8</v>
+        <v>281.4</v>
       </c>
       <c r="R50" t="n">
-        <v>-7.9</v>
+        <v>2.8</v>
       </c>
       <c r="S50" t="n">
-        <v>3.8</v>
+        <v>4.9</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>159.6 (±6.8)</t>
+          <t>5589.2 (±281.4)</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>-12.6 (±6.8)</t>
+          <t>155.8 (±281.4)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>-7.9% (±3.8%)</t>
+          <t>2.8% (±4.9%)</t>
         </is>
       </c>
       <c r="W50" t="n">
-        <v>14037</v>
+        <v>493254</v>
       </c>
       <c r="X50" t="n">
-        <v>-89.8</v>
+        <v>31.6</v>
       </c>
       <c r="Y50" t="n">
-        <v>48.5</v>
+        <v>57</v>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>-89.8(±48.5)</t>
+          <t>31.6(±57.0)</t>
         </is>
       </c>
     </row>
@@ -5071,87 +5071,87 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>2020</v>
       </c>
       <c r="D51" t="n">
-        <v>470</v>
+        <v>1374</v>
       </c>
       <c r="E51" t="n">
-        <v>289</v>
+        <v>1503</v>
       </c>
       <c r="F51" t="n">
-        <v>364</v>
+        <v>1460</v>
       </c>
       <c r="G51" t="n">
-        <v>337</v>
+        <v>1406</v>
       </c>
       <c r="H51" t="n">
-        <v>370</v>
+        <v>1336</v>
       </c>
       <c r="I51" t="n">
-        <v>373</v>
+        <v>1295</v>
       </c>
       <c r="J51" t="n">
-        <v>351.4</v>
+        <v>1432.8</v>
       </c>
       <c r="K51" t="n">
-        <v>31.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="L51" t="n">
         <v>1.96</v>
       </c>
       <c r="M51" t="n">
-        <v>27.6</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="N51" t="n">
-        <v>323.8</v>
+        <v>1365.7</v>
       </c>
       <c r="O51" t="n">
-        <v>379</v>
+        <v>1499.9</v>
       </c>
       <c r="P51" t="n">
-        <v>118.6</v>
+        <v>-58.8</v>
       </c>
       <c r="Q51" t="n">
-        <v>27.6</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="R51" t="n">
-        <v>33.8</v>
+        <v>-4.1</v>
       </c>
       <c r="S51" t="n">
-        <v>9.800000000000001</v>
+        <v>4.3</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>351.4 (±27.6)</t>
+          <t>1432.8 (±67.1)</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>118.6 (±27.6)</t>
+          <t>-58.8 (±67.1)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>33.8% (±9.8%)</t>
+          <t>-4.1% (±4.3%)</t>
         </is>
       </c>
       <c r="W51" t="n">
-        <v>16954</v>
+        <v>137044</v>
       </c>
       <c r="X51" t="n">
-        <v>699.5</v>
+        <v>-42.9</v>
       </c>
       <c r="Y51" t="n">
-        <v>162.8</v>
+        <v>49</v>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>699.5(±162.8)</t>
+          <t>-42.9(±49.0)</t>
         </is>
       </c>
     </row>
@@ -5163,87 +5163,87 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>2020</v>
       </c>
       <c r="D52" t="n">
-        <v>5745</v>
+        <v>31063</v>
       </c>
       <c r="E52" t="n">
-        <v>6058</v>
+        <v>22051</v>
       </c>
       <c r="F52" t="n">
-        <v>5581</v>
+        <v>22655</v>
       </c>
       <c r="G52" t="n">
-        <v>5310</v>
+        <v>23212</v>
       </c>
       <c r="H52" t="n">
-        <v>5309</v>
+        <v>24714</v>
       </c>
       <c r="I52" t="n">
-        <v>5144</v>
+        <v>25008</v>
       </c>
       <c r="J52" t="n">
-        <v>5589.2</v>
+        <v>23980</v>
       </c>
       <c r="K52" t="n">
-        <v>321</v>
+        <v>1152.4</v>
       </c>
       <c r="L52" t="n">
         <v>1.96</v>
       </c>
       <c r="M52" t="n">
-        <v>281.4</v>
+        <v>1010.1</v>
       </c>
       <c r="N52" t="n">
-        <v>5307.8</v>
+        <v>22969.9</v>
       </c>
       <c r="O52" t="n">
-        <v>5870.599999999999</v>
+        <v>24990.1</v>
       </c>
       <c r="P52" t="n">
-        <v>155.8</v>
+        <v>7083</v>
       </c>
       <c r="Q52" t="n">
-        <v>281.4</v>
+        <v>1010.1</v>
       </c>
       <c r="R52" t="n">
-        <v>2.8</v>
+        <v>29.5</v>
       </c>
       <c r="S52" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>5589.2 (±281.4)</t>
+          <t>23980.0 (±1010.1)</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>155.8 (±281.4)</t>
+          <t>7083.0 (±1010.1)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>2.8% (±4.9%)</t>
+          <t>29.5% (±5.2%)</t>
         </is>
       </c>
       <c r="W52" t="n">
-        <v>493254</v>
+        <v>1095263</v>
       </c>
       <c r="X52" t="n">
-        <v>31.6</v>
+        <v>646.7</v>
       </c>
       <c r="Y52" t="n">
-        <v>57</v>
+        <v>92.2</v>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>31.6(±57.0)</t>
+          <t>646.7(±92.2)</t>
         </is>
       </c>
     </row>
@@ -5255,87 +5255,87 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>2020</v>
       </c>
       <c r="D53" t="n">
-        <v>1374</v>
+        <v>4148</v>
       </c>
       <c r="E53" t="n">
-        <v>1503</v>
+        <v>3524</v>
       </c>
       <c r="F53" t="n">
-        <v>1460</v>
+        <v>3730</v>
       </c>
       <c r="G53" t="n">
-        <v>1406</v>
+        <v>3629</v>
       </c>
       <c r="H53" t="n">
-        <v>1336</v>
+        <v>3660</v>
       </c>
       <c r="I53" t="n">
-        <v>1295</v>
+        <v>3724</v>
       </c>
       <c r="J53" t="n">
-        <v>1432.8</v>
+        <v>3731.000000000001</v>
       </c>
       <c r="K53" t="n">
-        <v>76.59999999999999</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="L53" t="n">
         <v>1.96</v>
       </c>
       <c r="M53" t="n">
-        <v>67.09999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="N53" t="n">
-        <v>1365.7</v>
+        <v>3665.200000000001</v>
       </c>
       <c r="O53" t="n">
-        <v>1499.9</v>
+        <v>3796.800000000001</v>
       </c>
       <c r="P53" t="n">
-        <v>-58.8</v>
+        <v>417</v>
       </c>
       <c r="Q53" t="n">
-        <v>67.09999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="R53" t="n">
-        <v>-4.1</v>
+        <v>11.2</v>
       </c>
       <c r="S53" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>1432.8 (±67.1)</t>
+          <t>3731.0 (±65.8)</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>-58.8 (±67.1)</t>
+          <t>417.0 (±65.8)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>-4.1% (±4.3%)</t>
+          <t>11.2% (±2.0%)</t>
         </is>
       </c>
       <c r="W53" t="n">
-        <v>137044</v>
+        <v>285465</v>
       </c>
       <c r="X53" t="n">
-        <v>-42.9</v>
+        <v>146.1</v>
       </c>
       <c r="Y53" t="n">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>-42.9(±49.0)</t>
+          <t>146.1(±23.0)</t>
         </is>
       </c>
     </row>
@@ -5347,87 +5347,87 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>2020</v>
       </c>
       <c r="D54" t="n">
-        <v>31063</v>
+        <v>18305</v>
       </c>
       <c r="E54" t="n">
-        <v>22051</v>
+        <v>12569</v>
       </c>
       <c r="F54" t="n">
-        <v>22655</v>
+        <v>12817</v>
       </c>
       <c r="G54" t="n">
-        <v>23212</v>
+        <v>13450</v>
       </c>
       <c r="H54" t="n">
-        <v>24714</v>
+        <v>14465</v>
       </c>
       <c r="I54" t="n">
-        <v>25008</v>
+        <v>14171</v>
       </c>
       <c r="J54" t="n">
-        <v>23980</v>
+        <v>13771.2</v>
       </c>
       <c r="K54" t="n">
-        <v>1152.4</v>
+        <v>737.2</v>
       </c>
       <c r="L54" t="n">
         <v>1.96</v>
       </c>
       <c r="M54" t="n">
-        <v>1010.1</v>
+        <v>646.2</v>
       </c>
       <c r="N54" t="n">
-        <v>22969.9</v>
+        <v>13125</v>
       </c>
       <c r="O54" t="n">
-        <v>24990.1</v>
+        <v>14417.4</v>
       </c>
       <c r="P54" t="n">
-        <v>7083</v>
+        <v>4533.8</v>
       </c>
       <c r="Q54" t="n">
-        <v>1010.1</v>
+        <v>646.2</v>
       </c>
       <c r="R54" t="n">
-        <v>29.5</v>
+        <v>32.9</v>
       </c>
       <c r="S54" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>23980.0 (±1010.1)</t>
+          <t>13771.2 (±646.2)</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>7083.0 (±1010.1)</t>
+          <t>4533.8 (±646.2)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>29.5% (±5.2%)</t>
+          <t>32.9% (±5.9%)</t>
         </is>
       </c>
       <c r="W54" t="n">
-        <v>1095263</v>
+        <v>531739</v>
       </c>
       <c r="X54" t="n">
-        <v>646.7</v>
+        <v>852.6</v>
       </c>
       <c r="Y54" t="n">
-        <v>92.2</v>
+        <v>121.6</v>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>646.7(±92.2)</t>
+          <t>852.6(±121.6)</t>
         </is>
       </c>
     </row>
@@ -5439,87 +5439,87 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>2020</v>
       </c>
       <c r="D55" t="n">
-        <v>4148</v>
+        <v>3753</v>
       </c>
       <c r="E55" t="n">
-        <v>3524</v>
+        <v>2835</v>
       </c>
       <c r="F55" t="n">
-        <v>3730</v>
+        <v>3003</v>
       </c>
       <c r="G55" t="n">
-        <v>3629</v>
+        <v>2973</v>
       </c>
       <c r="H55" t="n">
-        <v>3660</v>
+        <v>3237</v>
       </c>
       <c r="I55" t="n">
-        <v>3724</v>
+        <v>3199</v>
       </c>
       <c r="J55" t="n">
-        <v>3731.000000000001</v>
+        <v>3102.199999999998</v>
       </c>
       <c r="K55" t="n">
-        <v>75.09999999999999</v>
+        <v>149.4</v>
       </c>
       <c r="L55" t="n">
         <v>1.96</v>
       </c>
       <c r="M55" t="n">
-        <v>65.8</v>
+        <v>131</v>
       </c>
       <c r="N55" t="n">
-        <v>3665.200000000001</v>
+        <v>2971.199999999998</v>
       </c>
       <c r="O55" t="n">
-        <v>3796.800000000001</v>
+        <v>3233.199999999998</v>
       </c>
       <c r="P55" t="n">
-        <v>417</v>
+        <v>650.8</v>
       </c>
       <c r="Q55" t="n">
-        <v>65.8</v>
+        <v>131</v>
       </c>
       <c r="R55" t="n">
-        <v>11.2</v>
+        <v>21</v>
       </c>
       <c r="S55" t="n">
-        <v>2</v>
+        <v>4.9</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>3731.0 (±65.8)</t>
+          <t>3102.2 (±131.0)</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>417.0 (±65.8)</t>
+          <t>650.8 (±131.0)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>11.2% (±2.0%)</t>
+          <t>21.0% (±4.9%)</t>
         </is>
       </c>
       <c r="W55" t="n">
-        <v>285465</v>
+        <v>148066</v>
       </c>
       <c r="X55" t="n">
-        <v>146.1</v>
+        <v>439.5</v>
       </c>
       <c r="Y55" t="n">
-        <v>23</v>
+        <v>88.5</v>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>146.1(±23.0)</t>
+          <t>439.5(±88.5)</t>
         </is>
       </c>
     </row>
@@ -5531,87 +5531,87 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>2020</v>
       </c>
       <c r="D56" t="n">
-        <v>18305</v>
+        <v>1106</v>
       </c>
       <c r="E56" t="n">
-        <v>12569</v>
+        <v>798</v>
       </c>
       <c r="F56" t="n">
-        <v>12817</v>
+        <v>862</v>
       </c>
       <c r="G56" t="n">
-        <v>13450</v>
+        <v>847</v>
       </c>
       <c r="H56" t="n">
-        <v>14465</v>
+        <v>960</v>
       </c>
       <c r="I56" t="n">
-        <v>14171</v>
+        <v>986</v>
       </c>
       <c r="J56" t="n">
-        <v>13771.2</v>
+        <v>903.4000000000002</v>
       </c>
       <c r="K56" t="n">
-        <v>737.2</v>
+        <v>71</v>
       </c>
       <c r="L56" t="n">
         <v>1.96</v>
       </c>
       <c r="M56" t="n">
-        <v>646.2</v>
+        <v>62.2</v>
       </c>
       <c r="N56" t="n">
-        <v>13125</v>
+        <v>841.2000000000002</v>
       </c>
       <c r="O56" t="n">
-        <v>14417.4</v>
+        <v>965.6000000000003</v>
       </c>
       <c r="P56" t="n">
-        <v>4533.8</v>
+        <v>202.6</v>
       </c>
       <c r="Q56" t="n">
-        <v>646.2</v>
+        <v>62.2</v>
       </c>
       <c r="R56" t="n">
-        <v>32.9</v>
+        <v>22.4</v>
       </c>
       <c r="S56" t="n">
-        <v>5.9</v>
+        <v>7.9</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>13771.2 (±646.2)</t>
+          <t>903.4 (±62.2)</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>4533.8 (±646.2)</t>
+          <t>202.6 (±62.2)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>32.9% (±5.9%)</t>
+          <t>22.4% (±7.9%)</t>
         </is>
       </c>
       <c r="W56" t="n">
-        <v>531739</v>
+        <v>65374</v>
       </c>
       <c r="X56" t="n">
-        <v>852.6</v>
+        <v>309.9</v>
       </c>
       <c r="Y56" t="n">
-        <v>121.6</v>
+        <v>95.2</v>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>852.6(±121.6)</t>
+          <t>309.9(±95.2)</t>
         </is>
       </c>
     </row>
@@ -5623,87 +5623,87 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>2020</v>
       </c>
       <c r="D57" t="n">
-        <v>3753</v>
+        <v>15883</v>
       </c>
       <c r="E57" t="n">
-        <v>2835</v>
+        <v>13492</v>
       </c>
       <c r="F57" t="n">
-        <v>3003</v>
+        <v>13126</v>
       </c>
       <c r="G57" t="n">
-        <v>2973</v>
+        <v>13309</v>
       </c>
       <c r="H57" t="n">
-        <v>3237</v>
+        <v>13057</v>
       </c>
       <c r="I57" t="n">
-        <v>3199</v>
+        <v>12782</v>
       </c>
       <c r="J57" t="n">
-        <v>3102.199999999998</v>
+        <v>13394.8</v>
       </c>
       <c r="K57" t="n">
-        <v>149.4</v>
+        <v>239.5</v>
       </c>
       <c r="L57" t="n">
         <v>1.96</v>
       </c>
       <c r="M57" t="n">
-        <v>131</v>
+        <v>209.9</v>
       </c>
       <c r="N57" t="n">
-        <v>2971.199999999998</v>
+        <v>13184.9</v>
       </c>
       <c r="O57" t="n">
-        <v>3233.199999999998</v>
+        <v>13604.7</v>
       </c>
       <c r="P57" t="n">
-        <v>650.8</v>
+        <v>2488.2</v>
       </c>
       <c r="Q57" t="n">
-        <v>131</v>
+        <v>209.9</v>
       </c>
       <c r="R57" t="n">
-        <v>21</v>
+        <v>18.6</v>
       </c>
       <c r="S57" t="n">
-        <v>4.9</v>
+        <v>1.9</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>3102.2 (±131.0)</t>
+          <t>13394.8 (±209.9)</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>650.8 (±131.0)</t>
+          <t>2488.2 (±209.9)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>21.0% (±4.9%)</t>
+          <t>18.6% (±1.9%)</t>
         </is>
       </c>
       <c r="W57" t="n">
-        <v>148066</v>
+        <v>1160179</v>
       </c>
       <c r="X57" t="n">
-        <v>439.5</v>
+        <v>214.5</v>
       </c>
       <c r="Y57" t="n">
-        <v>88.5</v>
+        <v>18.1</v>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>439.5(±88.5)</t>
+          <t>214.5(±18.1)</t>
         </is>
       </c>
     </row>
@@ -5715,87 +5715,87 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>2020</v>
       </c>
       <c r="D58" t="n">
-        <v>1106</v>
+        <v>2693</v>
       </c>
       <c r="E58" t="n">
-        <v>798</v>
+        <v>3090</v>
       </c>
       <c r="F58" t="n">
-        <v>862</v>
+        <v>2830</v>
       </c>
       <c r="G58" t="n">
-        <v>847</v>
+        <v>2584</v>
       </c>
       <c r="H58" t="n">
-        <v>960</v>
+        <v>2648</v>
       </c>
       <c r="I58" t="n">
-        <v>986</v>
+        <v>2421</v>
       </c>
       <c r="J58" t="n">
-        <v>903.4000000000002</v>
+        <v>2780.2</v>
       </c>
       <c r="K58" t="n">
-        <v>71</v>
+        <v>228.9</v>
       </c>
       <c r="L58" t="n">
         <v>1.96</v>
       </c>
       <c r="M58" t="n">
-        <v>62.2</v>
+        <v>200.6</v>
       </c>
       <c r="N58" t="n">
-        <v>841.2000000000002</v>
+        <v>2579.6</v>
       </c>
       <c r="O58" t="n">
-        <v>965.6000000000003</v>
+        <v>2980.8</v>
       </c>
       <c r="P58" t="n">
-        <v>202.6</v>
+        <v>-87.2</v>
       </c>
       <c r="Q58" t="n">
-        <v>62.2</v>
+        <v>200.6</v>
       </c>
       <c r="R58" t="n">
-        <v>22.4</v>
+        <v>-3.1</v>
       </c>
       <c r="S58" t="n">
-        <v>7.9</v>
+        <v>6.6</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>903.4 (±62.2)</t>
+          <t>2780.2 (±200.6)</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>202.6 (±62.2)</t>
+          <t>-87.2 (±200.6)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>22.4% (±7.9%)</t>
+          <t>-3.1% (±6.6%)</t>
         </is>
       </c>
       <c r="W58" t="n">
-        <v>65374</v>
+        <v>267106</v>
       </c>
       <c r="X58" t="n">
-        <v>309.9</v>
+        <v>-32.6</v>
       </c>
       <c r="Y58" t="n">
-        <v>95.2</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>309.9(±95.2)</t>
+          <t>-32.6(±75.1)</t>
         </is>
       </c>
     </row>
@@ -5807,271 +5807,271 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>2020</v>
       </c>
       <c r="D59" t="n">
-        <v>15883</v>
+        <v>2087</v>
       </c>
       <c r="E59" t="n">
-        <v>13492</v>
+        <v>2137</v>
       </c>
       <c r="F59" t="n">
-        <v>13126</v>
+        <v>2033</v>
       </c>
       <c r="G59" t="n">
-        <v>13309</v>
+        <v>1916</v>
       </c>
       <c r="H59" t="n">
-        <v>13057</v>
+        <v>1943</v>
       </c>
       <c r="I59" t="n">
-        <v>12782</v>
+        <v>1872</v>
       </c>
       <c r="J59" t="n">
-        <v>13394.8</v>
+        <v>2017</v>
       </c>
       <c r="K59" t="n">
-        <v>239.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="L59" t="n">
         <v>1.96</v>
       </c>
       <c r="M59" t="n">
-        <v>209.9</v>
+        <v>82.7</v>
       </c>
       <c r="N59" t="n">
-        <v>13184.9</v>
+        <v>1934.3</v>
       </c>
       <c r="O59" t="n">
-        <v>13604.7</v>
+        <v>2099.7</v>
       </c>
       <c r="P59" t="n">
-        <v>2488.2</v>
+        <v>70</v>
       </c>
       <c r="Q59" t="n">
-        <v>209.9</v>
+        <v>82.7</v>
       </c>
       <c r="R59" t="n">
-        <v>18.6</v>
+        <v>3.5</v>
       </c>
       <c r="S59" t="n">
-        <v>1.9</v>
+        <v>4.1</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>13394.8 (±209.9)</t>
+          <t>2017.0 (±82.7)</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>2488.2 (±209.9)</t>
+          <t>70.0 (±82.7)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>18.6% (±1.9%)</t>
+          <t>3.5% (±4.1%)</t>
         </is>
       </c>
       <c r="W59" t="n">
-        <v>1160179</v>
+        <v>207844</v>
       </c>
       <c r="X59" t="n">
-        <v>214.5</v>
+        <v>33.7</v>
       </c>
       <c r="Y59" t="n">
-        <v>18.1</v>
+        <v>39.8</v>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>214.5(±18.1)</t>
+          <t>33.7(±39.8)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>2020</v>
       </c>
       <c r="D60" t="n">
-        <v>2693</v>
+        <v>4578</v>
       </c>
       <c r="E60" t="n">
-        <v>3090</v>
+        <v>4557</v>
       </c>
       <c r="F60" t="n">
-        <v>2830</v>
+        <v>4572</v>
       </c>
       <c r="G60" t="n">
-        <v>2584</v>
+        <v>4222</v>
       </c>
       <c r="H60" t="n">
-        <v>2648</v>
+        <v>4233</v>
       </c>
       <c r="I60" t="n">
-        <v>2421</v>
+        <v>4229</v>
       </c>
       <c r="J60" t="n">
-        <v>2780.2</v>
+        <v>4447.4</v>
       </c>
       <c r="K60" t="n">
-        <v>228.9</v>
+        <v>165</v>
       </c>
       <c r="L60" t="n">
         <v>1.96</v>
       </c>
       <c r="M60" t="n">
-        <v>200.6</v>
+        <v>144.6</v>
       </c>
       <c r="N60" t="n">
-        <v>2579.6</v>
+        <v>4302.799999999999</v>
       </c>
       <c r="O60" t="n">
-        <v>2980.8</v>
+        <v>4592</v>
       </c>
       <c r="P60" t="n">
-        <v>-87.2</v>
+        <v>130.6</v>
       </c>
       <c r="Q60" t="n">
-        <v>200.6</v>
+        <v>144.6</v>
       </c>
       <c r="R60" t="n">
-        <v>-3.1</v>
+        <v>2.9</v>
       </c>
       <c r="S60" t="n">
-        <v>6.6</v>
+        <v>3.2</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>2780.2 (±200.6)</t>
+          <t>4447.4 (±144.6)</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>-87.2 (±200.6)</t>
+          <t>130.6 (±144.6)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>-3.1% (±6.6%)</t>
+          <t>2.9% (±3.2%)</t>
         </is>
       </c>
       <c r="W60" t="n">
-        <v>267106</v>
+        <v>450381</v>
       </c>
       <c r="X60" t="n">
-        <v>-32.6</v>
+        <v>29</v>
       </c>
       <c r="Y60" t="n">
-        <v>75.09999999999999</v>
+        <v>32.1</v>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>-32.6(±75.1)</t>
+          <t>29.0(±32.1)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>2020</v>
       </c>
       <c r="D61" t="n">
-        <v>2082</v>
+        <v>7194</v>
       </c>
       <c r="E61" t="n">
-        <v>2137</v>
+        <v>6419</v>
       </c>
       <c r="F61" t="n">
-        <v>2033</v>
+        <v>6294</v>
       </c>
       <c r="G61" t="n">
-        <v>1916</v>
+        <v>6183</v>
       </c>
       <c r="H61" t="n">
-        <v>1943</v>
+        <v>6207</v>
       </c>
       <c r="I61" t="n">
-        <v>1872</v>
+        <v>6061</v>
       </c>
       <c r="J61" t="n">
-        <v>2017</v>
+        <v>6344.800000000001</v>
       </c>
       <c r="K61" t="n">
-        <v>94.40000000000001</v>
+        <v>119.2</v>
       </c>
       <c r="L61" t="n">
         <v>1.96</v>
       </c>
       <c r="M61" t="n">
-        <v>82.7</v>
+        <v>104.5</v>
       </c>
       <c r="N61" t="n">
-        <v>1934.3</v>
+        <v>6240.300000000001</v>
       </c>
       <c r="O61" t="n">
-        <v>2099.7</v>
+        <v>6449.300000000001</v>
       </c>
       <c r="P61" t="n">
-        <v>65</v>
+        <v>849.2</v>
       </c>
       <c r="Q61" t="n">
-        <v>82.7</v>
+        <v>104.5</v>
       </c>
       <c r="R61" t="n">
-        <v>3.2</v>
+        <v>13.4</v>
       </c>
       <c r="S61" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>2017.0 (±82.7)</t>
+          <t>6344.8 (±104.5)</t>
         </is>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>65.0 (±82.7)</t>
+          <t>849.2 (±104.5)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>3.2% (±4.0%)</t>
+          <t>13.4% (±1.9%)</t>
         </is>
       </c>
       <c r="W61" t="n">
-        <v>207844</v>
+        <v>623529</v>
       </c>
       <c r="X61" t="n">
-        <v>31.3</v>
+        <v>136.2</v>
       </c>
       <c r="Y61" t="n">
-        <v>39.8</v>
+        <v>16.8</v>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>31.3(±39.8)</t>
+          <t>136.2(±16.8)</t>
         </is>
       </c>
     </row>
@@ -6083,87 +6083,87 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="C62" t="n">
         <v>2020</v>
       </c>
       <c r="D62" t="n">
-        <v>4578</v>
+        <v>11004</v>
       </c>
       <c r="E62" t="n">
-        <v>4557</v>
+        <v>9351</v>
       </c>
       <c r="F62" t="n">
-        <v>4572</v>
+        <v>9133</v>
       </c>
       <c r="G62" t="n">
-        <v>4222</v>
+        <v>9067</v>
       </c>
       <c r="H62" t="n">
-        <v>4233</v>
+        <v>9021</v>
       </c>
       <c r="I62" t="n">
-        <v>4229</v>
+        <v>8746</v>
       </c>
       <c r="J62" t="n">
-        <v>4447.4</v>
+        <v>9223.6</v>
       </c>
       <c r="K62" t="n">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="L62" t="n">
         <v>1.96</v>
       </c>
       <c r="M62" t="n">
-        <v>144.6</v>
+        <v>170.9</v>
       </c>
       <c r="N62" t="n">
-        <v>4302.799999999999</v>
+        <v>9052.700000000001</v>
       </c>
       <c r="O62" t="n">
-        <v>4592</v>
+        <v>9394.5</v>
       </c>
       <c r="P62" t="n">
-        <v>130.6</v>
+        <v>1780.4</v>
       </c>
       <c r="Q62" t="n">
-        <v>144.6</v>
+        <v>170.9</v>
       </c>
       <c r="R62" t="n">
-        <v>2.9</v>
+        <v>19.3</v>
       </c>
       <c r="S62" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>4447.4 (±144.6)</t>
+          <t>9223.6 (±170.9)</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>130.6 (±144.6)</t>
+          <t>1780.4 (±170.9)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>2.9% (±3.2%)</t>
+          <t>19.3% (±2.2%)</t>
         </is>
       </c>
       <c r="W62" t="n">
-        <v>450381</v>
+        <v>463819</v>
       </c>
       <c r="X62" t="n">
-        <v>29</v>
+        <v>383.9</v>
       </c>
       <c r="Y62" t="n">
-        <v>32.1</v>
+        <v>36.8</v>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>29.0(±32.1)</t>
+          <t>383.9(±36.8)</t>
         </is>
       </c>
     </row>
@@ -6175,87 +6175,87 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>2020</v>
       </c>
       <c r="D63" t="n">
-        <v>7194</v>
+        <v>4428</v>
       </c>
       <c r="E63" t="n">
-        <v>6419</v>
+        <v>3568</v>
       </c>
       <c r="F63" t="n">
-        <v>6294</v>
+        <v>3705</v>
       </c>
       <c r="G63" t="n">
-        <v>6183</v>
+        <v>3764</v>
       </c>
       <c r="H63" t="n">
-        <v>6207</v>
+        <v>3822</v>
       </c>
       <c r="I63" t="n">
-        <v>6061</v>
+        <v>3643</v>
       </c>
       <c r="J63" t="n">
-        <v>6344.800000000001</v>
+        <v>3770.799999999999</v>
       </c>
       <c r="K63" t="n">
-        <v>119.2</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="L63" t="n">
         <v>1.96</v>
       </c>
       <c r="M63" t="n">
-        <v>104.5</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="N63" t="n">
-        <v>6240.300000000001</v>
+        <v>3692.699999999999</v>
       </c>
       <c r="O63" t="n">
-        <v>6449.300000000001</v>
+        <v>3848.899999999999</v>
       </c>
       <c r="P63" t="n">
-        <v>849.2</v>
+        <v>657.2</v>
       </c>
       <c r="Q63" t="n">
-        <v>104.5</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="R63" t="n">
-        <v>13.4</v>
+        <v>17.4</v>
       </c>
       <c r="S63" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>6344.8 (±104.5)</t>
+          <t>3770.8 (±78.1)</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>849.2 (±104.5)</t>
+          <t>657.2 (±78.1)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>13.4% (±1.9%)</t>
+          <t>17.4% (±2.4%)</t>
         </is>
       </c>
       <c r="W63" t="n">
-        <v>623529</v>
+        <v>267320</v>
       </c>
       <c r="X63" t="n">
-        <v>136.2</v>
+        <v>245.8</v>
       </c>
       <c r="Y63" t="n">
-        <v>16.8</v>
+        <v>29.3</v>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>136.2(±16.8)</t>
+          <t>245.8(±29.3)</t>
         </is>
       </c>
     </row>
@@ -6267,87 +6267,87 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>2020</v>
       </c>
       <c r="D64" t="n">
-        <v>11004</v>
+        <v>344</v>
       </c>
       <c r="E64" t="n">
-        <v>9351</v>
+        <v>357</v>
       </c>
       <c r="F64" t="n">
-        <v>9133</v>
+        <v>300</v>
       </c>
       <c r="G64" t="n">
-        <v>9067</v>
+        <v>338</v>
       </c>
       <c r="H64" t="n">
-        <v>9021</v>
+        <v>347</v>
       </c>
       <c r="I64" t="n">
-        <v>8746</v>
+        <v>340</v>
       </c>
       <c r="J64" t="n">
-        <v>9223.6</v>
+        <v>343.6</v>
       </c>
       <c r="K64" t="n">
-        <v>195</v>
+        <v>19.4</v>
       </c>
       <c r="L64" t="n">
         <v>1.96</v>
       </c>
       <c r="M64" t="n">
-        <v>170.9</v>
+        <v>17</v>
       </c>
       <c r="N64" t="n">
-        <v>9052.700000000001</v>
+        <v>326.6</v>
       </c>
       <c r="O64" t="n">
-        <v>9394.5</v>
+        <v>360.6</v>
       </c>
       <c r="P64" t="n">
-        <v>1780.4</v>
+        <v>0.4</v>
       </c>
       <c r="Q64" t="n">
-        <v>170.9</v>
+        <v>17</v>
       </c>
       <c r="R64" t="n">
-        <v>19.3</v>
+        <v>0.1</v>
       </c>
       <c r="S64" t="n">
-        <v>2.2</v>
+        <v>4.7</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>9223.6 (±170.9)</t>
+          <t>343.6 (±17.0)</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>1780.4 (±170.9)</t>
+          <t>0.4 (±17.0)</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>19.3% (±2.2%)</t>
+          <t>0.1% (±4.7%)</t>
         </is>
       </c>
       <c r="W64" t="n">
-        <v>463819</v>
+        <v>44929</v>
       </c>
       <c r="X64" t="n">
-        <v>383.9</v>
+        <v>0.9</v>
       </c>
       <c r="Y64" t="n">
-        <v>36.8</v>
+        <v>37.8</v>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>383.9(±36.8)</t>
+          <t>0.9(±37.8)</t>
         </is>
       </c>
     </row>
@@ -6359,87 +6359,87 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>2020</v>
       </c>
       <c r="D65" t="n">
-        <v>4428</v>
+        <v>10365</v>
       </c>
       <c r="E65" t="n">
-        <v>3568</v>
+        <v>9940</v>
       </c>
       <c r="F65" t="n">
-        <v>3705</v>
+        <v>9659</v>
       </c>
       <c r="G65" t="n">
-        <v>3764</v>
+        <v>9324</v>
       </c>
       <c r="H65" t="n">
-        <v>3822</v>
+        <v>9464</v>
       </c>
       <c r="I65" t="n">
-        <v>3643</v>
+        <v>9062</v>
       </c>
       <c r="J65" t="n">
-        <v>3770.799999999999</v>
+        <v>9671.400000000003</v>
       </c>
       <c r="K65" t="n">
-        <v>89.09999999999999</v>
+        <v>297.5</v>
       </c>
       <c r="L65" t="n">
         <v>1.96</v>
       </c>
       <c r="M65" t="n">
-        <v>78.09999999999999</v>
+        <v>260.8</v>
       </c>
       <c r="N65" t="n">
-        <v>3692.699999999999</v>
+        <v>9410.600000000004</v>
       </c>
       <c r="O65" t="n">
-        <v>3848.899999999999</v>
+        <v>9932.200000000003</v>
       </c>
       <c r="P65" t="n">
-        <v>657.2</v>
+        <v>693.6</v>
       </c>
       <c r="Q65" t="n">
-        <v>78.09999999999999</v>
+        <v>260.8</v>
       </c>
       <c r="R65" t="n">
-        <v>17.4</v>
+        <v>7.2</v>
       </c>
       <c r="S65" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>3770.8 (±78.1)</t>
+          <t>9671.4 (±260.8)</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>657.2 (±78.1)</t>
+          <t>693.6 (±260.8)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>17.4% (±2.4%)</t>
+          <t>7.2% (±2.8%)</t>
         </is>
       </c>
       <c r="W65" t="n">
-        <v>267320</v>
+        <v>678927</v>
       </c>
       <c r="X65" t="n">
-        <v>245.8</v>
+        <v>102.2</v>
       </c>
       <c r="Y65" t="n">
-        <v>29.3</v>
+        <v>38.4</v>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>245.8(±29.3)</t>
+          <t>102.2(±38.4)</t>
         </is>
       </c>
     </row>
@@ -6451,87 +6451,87 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>2020</v>
       </c>
       <c r="D66" t="n">
-        <v>344</v>
+        <v>3530</v>
       </c>
       <c r="E66" t="n">
-        <v>357</v>
+        <v>3880</v>
       </c>
       <c r="F66" t="n">
-        <v>300</v>
+        <v>3673</v>
       </c>
       <c r="G66" t="n">
-        <v>338</v>
+        <v>3408</v>
       </c>
       <c r="H66" t="n">
-        <v>347</v>
+        <v>3526</v>
       </c>
       <c r="I66" t="n">
-        <v>340</v>
+        <v>3514</v>
       </c>
       <c r="J66" t="n">
-        <v>343.6</v>
+        <v>3667.4</v>
       </c>
       <c r="K66" t="n">
-        <v>19.4</v>
+        <v>163.4</v>
       </c>
       <c r="L66" t="n">
         <v>1.96</v>
       </c>
       <c r="M66" t="n">
-        <v>17</v>
+        <v>143.2</v>
       </c>
       <c r="N66" t="n">
-        <v>326.6</v>
+        <v>3524.2</v>
       </c>
       <c r="O66" t="n">
-        <v>360.6</v>
+        <v>3810.6</v>
       </c>
       <c r="P66" t="n">
-        <v>0.4</v>
+        <v>-137.4</v>
       </c>
       <c r="Q66" t="n">
-        <v>17</v>
+        <v>143.2</v>
       </c>
       <c r="R66" t="n">
-        <v>0.1</v>
+        <v>-3.7</v>
       </c>
       <c r="S66" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>343.6 (±17.0)</t>
+          <t>3667.4 (±143.2)</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>0.4 (±17.0)</t>
+          <t>-137.4 (±143.2)</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>0.1% (±4.7%)</t>
+          <t>-3.7% (±3.7%)</t>
         </is>
       </c>
       <c r="W66" t="n">
-        <v>44929</v>
+        <v>319275</v>
       </c>
       <c r="X66" t="n">
-        <v>0.9</v>
+        <v>-43</v>
       </c>
       <c r="Y66" t="n">
-        <v>37.8</v>
+        <v>44.8</v>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>0.9(±37.8)</t>
+          <t>-43.0(±44.8)</t>
         </is>
       </c>
     </row>
@@ -6543,87 +6543,87 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>2020</v>
       </c>
       <c r="D67" t="n">
-        <v>10365</v>
+        <v>1210</v>
       </c>
       <c r="E67" t="n">
-        <v>9940</v>
+        <v>1053</v>
       </c>
       <c r="F67" t="n">
-        <v>9659</v>
+        <v>1099</v>
       </c>
       <c r="G67" t="n">
-        <v>9324</v>
+        <v>1090</v>
       </c>
       <c r="H67" t="n">
-        <v>9464</v>
+        <v>1166</v>
       </c>
       <c r="I67" t="n">
-        <v>9062</v>
+        <v>1087</v>
       </c>
       <c r="J67" t="n">
-        <v>9671.400000000003</v>
+        <v>1117.4</v>
       </c>
       <c r="K67" t="n">
-        <v>297.5</v>
+        <v>37</v>
       </c>
       <c r="L67" t="n">
         <v>1.96</v>
       </c>
       <c r="M67" t="n">
-        <v>260.8</v>
+        <v>32.4</v>
       </c>
       <c r="N67" t="n">
-        <v>9410.600000000004</v>
+        <v>1085</v>
       </c>
       <c r="O67" t="n">
-        <v>9932.200000000003</v>
+        <v>1149.8</v>
       </c>
       <c r="P67" t="n">
-        <v>693.6</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="Q67" t="n">
-        <v>260.8</v>
+        <v>32.4</v>
       </c>
       <c r="R67" t="n">
-        <v>7.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S67" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>9671.4 (±260.8)</t>
+          <t>1117.4 (±32.4)</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>693.6 (±260.8)</t>
+          <t>92.6 (±32.4)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>7.2% (±2.8%)</t>
+          <t>8.3% (±3.1%)</t>
         </is>
       </c>
       <c r="W67" t="n">
-        <v>678927</v>
+        <v>77501</v>
       </c>
       <c r="X67" t="n">
-        <v>102.2</v>
+        <v>119.5</v>
       </c>
       <c r="Y67" t="n">
-        <v>38.4</v>
+        <v>41.8</v>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>102.2(±38.4)</t>
+          <t>119.5(±41.8)</t>
         </is>
       </c>
     </row>
@@ -6635,87 +6635,87 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>2020</v>
       </c>
       <c r="D68" t="n">
-        <v>3530</v>
+        <v>3375</v>
       </c>
       <c r="E68" t="n">
-        <v>3880</v>
+        <v>4007</v>
       </c>
       <c r="F68" t="n">
-        <v>3673</v>
+        <v>3754</v>
       </c>
       <c r="G68" t="n">
-        <v>3408</v>
+        <v>3695</v>
       </c>
       <c r="H68" t="n">
-        <v>3526</v>
+        <v>3545</v>
       </c>
       <c r="I68" t="n">
-        <v>3514</v>
+        <v>3427</v>
       </c>
       <c r="J68" t="n">
-        <v>3667.4</v>
+        <v>3745.599999999999</v>
       </c>
       <c r="K68" t="n">
-        <v>163.4</v>
+        <v>197.3</v>
       </c>
       <c r="L68" t="n">
         <v>1.96</v>
       </c>
       <c r="M68" t="n">
-        <v>143.2</v>
+        <v>172.9</v>
       </c>
       <c r="N68" t="n">
-        <v>3524.2</v>
+        <v>3572.699999999999</v>
       </c>
       <c r="O68" t="n">
-        <v>3810.6</v>
+        <v>3918.499999999999</v>
       </c>
       <c r="P68" t="n">
-        <v>-137.4</v>
+        <v>-370.6</v>
       </c>
       <c r="Q68" t="n">
-        <v>143.2</v>
+        <v>172.9</v>
       </c>
       <c r="R68" t="n">
-        <v>-3.7</v>
+        <v>-9.9</v>
       </c>
       <c r="S68" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>3667.4 (±143.2)</t>
+          <t>3745.6 (±172.9)</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>-137.4 (±143.2)</t>
+          <t>-370.6 (±172.9)</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>-3.7% (±3.7%)</t>
+          <t>-9.9% (±4.0%)</t>
         </is>
       </c>
       <c r="W68" t="n">
-        <v>319275</v>
+        <v>356960</v>
       </c>
       <c r="X68" t="n">
-        <v>-43</v>
+        <v>-103.8</v>
       </c>
       <c r="Y68" t="n">
-        <v>44.8</v>
+        <v>48.4</v>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>-43.0(±44.8)</t>
+          <t>-103.8(±48.4)</t>
         </is>
       </c>
     </row>
@@ -6727,87 +6727,87 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>2020</v>
       </c>
       <c r="D69" t="n">
-        <v>1210</v>
+        <v>36651</v>
       </c>
       <c r="E69" t="n">
-        <v>1053</v>
+        <v>34891</v>
       </c>
       <c r="F69" t="n">
-        <v>1099</v>
+        <v>34541</v>
       </c>
       <c r="G69" t="n">
-        <v>1090</v>
+        <v>34228</v>
       </c>
       <c r="H69" t="n">
-        <v>1166</v>
+        <v>34247</v>
       </c>
       <c r="I69" t="n">
-        <v>1087</v>
+        <v>33588</v>
       </c>
       <c r="J69" t="n">
-        <v>1117.4</v>
+        <v>34943.8</v>
       </c>
       <c r="K69" t="n">
-        <v>37</v>
+        <v>429.5</v>
       </c>
       <c r="L69" t="n">
         <v>1.96</v>
       </c>
       <c r="M69" t="n">
-        <v>32.4</v>
+        <v>376.5</v>
       </c>
       <c r="N69" t="n">
-        <v>1085</v>
+        <v>34567.3</v>
       </c>
       <c r="O69" t="n">
-        <v>1149.8</v>
+        <v>35320.3</v>
       </c>
       <c r="P69" t="n">
-        <v>92.59999999999999</v>
+        <v>1707.2</v>
       </c>
       <c r="Q69" t="n">
-        <v>32.4</v>
+        <v>376.5</v>
       </c>
       <c r="R69" t="n">
-        <v>8.300000000000001</v>
+        <v>4.9</v>
       </c>
       <c r="S69" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>1117.4 (±32.4)</t>
+          <t>34943.8 (±376.5)</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>92.6 (±32.4)</t>
+          <t>1707.2 (±376.5)</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>8.3% (±3.1%)</t>
+          <t>4.9% (±1.1%)</t>
         </is>
       </c>
       <c r="W69" t="n">
-        <v>77501</v>
+        <v>3902936</v>
       </c>
       <c r="X69" t="n">
-        <v>119.5</v>
+        <v>43.7</v>
       </c>
       <c r="Y69" t="n">
-        <v>41.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>119.5(±41.8)</t>
+          <t>43.7(±9.7)</t>
         </is>
       </c>
     </row>
@@ -6819,87 +6819,87 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="C70" t="n">
         <v>2020</v>
       </c>
       <c r="D70" t="n">
-        <v>3375</v>
+        <v>6567</v>
       </c>
       <c r="E70" t="n">
-        <v>4007</v>
+        <v>6268</v>
       </c>
       <c r="F70" t="n">
-        <v>3754</v>
+        <v>5777</v>
       </c>
       <c r="G70" t="n">
-        <v>3695</v>
+        <v>5799</v>
       </c>
       <c r="H70" t="n">
-        <v>3545</v>
+        <v>5710</v>
       </c>
       <c r="I70" t="n">
-        <v>3427</v>
+        <v>5710</v>
       </c>
       <c r="J70" t="n">
-        <v>3745.599999999999</v>
+        <v>5973.6</v>
       </c>
       <c r="K70" t="n">
-        <v>197.3</v>
+        <v>210.6</v>
       </c>
       <c r="L70" t="n">
         <v>1.96</v>
       </c>
       <c r="M70" t="n">
-        <v>172.9</v>
+        <v>184.6</v>
       </c>
       <c r="N70" t="n">
-        <v>3572.699999999999</v>
+        <v>5789</v>
       </c>
       <c r="O70" t="n">
-        <v>3918.499999999999</v>
+        <v>6158.200000000001</v>
       </c>
       <c r="P70" t="n">
-        <v>-370.6</v>
+        <v>593.4</v>
       </c>
       <c r="Q70" t="n">
-        <v>172.9</v>
+        <v>184.6</v>
       </c>
       <c r="R70" t="n">
-        <v>-9.9</v>
+        <v>9.9</v>
       </c>
       <c r="S70" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>3745.6 (±172.9)</t>
+          <t>5973.6 (±184.6)</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>-370.6 (±172.9)</t>
+          <t>593.4 (±184.6)</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>-9.9% (±4.0%)</t>
+          <t>9.9% (±3.3%)</t>
         </is>
       </c>
       <c r="W70" t="n">
-        <v>356960</v>
+        <v>609002</v>
       </c>
       <c r="X70" t="n">
-        <v>-103.8</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="Y70" t="n">
-        <v>48.4</v>
+        <v>30.3</v>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>-103.8(±48.4)</t>
+          <t>97.4(±30.3)</t>
         </is>
       </c>
     </row>
@@ -6911,87 +6911,87 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>2020</v>
       </c>
       <c r="D71" t="n">
-        <v>36651</v>
+        <v>14156</v>
       </c>
       <c r="E71" t="n">
-        <v>34891</v>
+        <v>10655</v>
       </c>
       <c r="F71" t="n">
-        <v>34541</v>
+        <v>11081</v>
       </c>
       <c r="G71" t="n">
-        <v>34228</v>
+        <v>11228</v>
       </c>
       <c r="H71" t="n">
-        <v>34247</v>
+        <v>11746</v>
       </c>
       <c r="I71" t="n">
-        <v>33588</v>
+        <v>11701</v>
       </c>
       <c r="J71" t="n">
-        <v>34943.8</v>
+        <v>11483.8</v>
       </c>
       <c r="K71" t="n">
-        <v>429.5</v>
+        <v>406.8</v>
       </c>
       <c r="L71" t="n">
         <v>1.96</v>
       </c>
       <c r="M71" t="n">
-        <v>376.5</v>
+        <v>356.6</v>
       </c>
       <c r="N71" t="n">
-        <v>34567.3</v>
+        <v>11127.2</v>
       </c>
       <c r="O71" t="n">
-        <v>35320.3</v>
+        <v>11840.4</v>
       </c>
       <c r="P71" t="n">
-        <v>1707.2</v>
+        <v>2672.2</v>
       </c>
       <c r="Q71" t="n">
-        <v>376.5</v>
+        <v>356.6</v>
       </c>
       <c r="R71" t="n">
-        <v>4.9</v>
+        <v>23.3</v>
       </c>
       <c r="S71" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>34943.8 (±376.5)</t>
+          <t>11483.8 (±356.6)</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>1707.2 (±376.5)</t>
+          <t>2672.2 (±356.6)</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>4.9% (±1.1%)</t>
+          <t>23.3% (±3.7%)</t>
         </is>
       </c>
       <c r="W71" t="n">
-        <v>3902936</v>
+        <v>643679</v>
       </c>
       <c r="X71" t="n">
-        <v>43.7</v>
+        <v>415.1</v>
       </c>
       <c r="Y71" t="n">
-        <v>9.699999999999999</v>
+        <v>55.4</v>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>43.7(±9.7)</t>
+          <t>415.1(±55.4)</t>
         </is>
       </c>
     </row>
@@ -7003,87 +7003,87 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="C72" t="n">
         <v>2020</v>
       </c>
       <c r="D72" t="n">
-        <v>6567</v>
+        <v>142</v>
       </c>
       <c r="E72" t="n">
-        <v>6268</v>
+        <v>130</v>
       </c>
       <c r="F72" t="n">
-        <v>5777</v>
+        <v>124</v>
       </c>
       <c r="G72" t="n">
-        <v>5799</v>
+        <v>125</v>
       </c>
       <c r="H72" t="n">
-        <v>5710</v>
+        <v>110</v>
       </c>
       <c r="I72" t="n">
-        <v>5710</v>
+        <v>131</v>
       </c>
       <c r="J72" t="n">
-        <v>5973.6</v>
+        <v>126.4</v>
       </c>
       <c r="K72" t="n">
-        <v>210.6</v>
+        <v>7.5</v>
       </c>
       <c r="L72" t="n">
         <v>1.96</v>
       </c>
       <c r="M72" t="n">
-        <v>184.6</v>
+        <v>6.6</v>
       </c>
       <c r="N72" t="n">
-        <v>5789</v>
+        <v>119.8</v>
       </c>
       <c r="O72" t="n">
-        <v>6158.200000000001</v>
+        <v>133</v>
       </c>
       <c r="P72" t="n">
-        <v>593.4</v>
+        <v>15.6</v>
       </c>
       <c r="Q72" t="n">
-        <v>184.6</v>
+        <v>6.6</v>
       </c>
       <c r="R72" t="n">
-        <v>9.9</v>
+        <v>12.3</v>
       </c>
       <c r="S72" t="n">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>5973.6 (±184.6)</t>
+          <t>126.4 (±6.6)</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>593.4 (±184.6)</t>
+          <t>15.6 (±6.6)</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>9.9% (±3.3%)</t>
+          <t>12.3% (±5.5%)</t>
         </is>
       </c>
       <c r="W72" t="n">
-        <v>609002</v>
+        <v>16981</v>
       </c>
       <c r="X72" t="n">
-        <v>97.40000000000001</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="Y72" t="n">
-        <v>30.3</v>
+        <v>38.8</v>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>97.4(±30.3)</t>
+          <t>91.9(±38.8)</t>
         </is>
       </c>
     </row>
@@ -7095,87 +7095,87 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>2020</v>
       </c>
       <c r="D73" t="n">
-        <v>14151</v>
+        <v>32445</v>
       </c>
       <c r="E73" t="n">
-        <v>10655</v>
+        <v>31345</v>
       </c>
       <c r="F73" t="n">
-        <v>11081</v>
+        <v>30273</v>
       </c>
       <c r="G73" t="n">
-        <v>11228</v>
+        <v>28973</v>
       </c>
       <c r="H73" t="n">
-        <v>11746</v>
+        <v>27696</v>
       </c>
       <c r="I73" t="n">
-        <v>11699</v>
+        <v>26478</v>
       </c>
       <c r="J73" t="n">
-        <v>11483.4</v>
+        <v>29591.4</v>
       </c>
       <c r="K73" t="n">
-        <v>406.4</v>
+        <v>1741.8</v>
       </c>
       <c r="L73" t="n">
         <v>1.96</v>
       </c>
       <c r="M73" t="n">
-        <v>356.2</v>
+        <v>1526.8</v>
       </c>
       <c r="N73" t="n">
-        <v>11127.2</v>
+        <v>28064.6</v>
       </c>
       <c r="O73" t="n">
-        <v>11839.6</v>
+        <v>31118.2</v>
       </c>
       <c r="P73" t="n">
-        <v>2667.6</v>
+        <v>2853.6</v>
       </c>
       <c r="Q73" t="n">
-        <v>356.2</v>
+        <v>1526.8</v>
       </c>
       <c r="R73" t="n">
-        <v>23.2</v>
+        <v>9.6</v>
       </c>
       <c r="S73" t="n">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>11483.4 (±356.2)</t>
+          <t>29591.4 (±1526.8)</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>2667.6 (±356.2)</t>
+          <t>2853.6 (±1526.8)</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>23.2% (±3.7%)</t>
+          <t>9.6% (±5.3%)</t>
         </is>
       </c>
       <c r="W73" t="n">
-        <v>643679</v>
+        <v>3471014</v>
       </c>
       <c r="X73" t="n">
-        <v>414.4</v>
+        <v>82.2</v>
       </c>
       <c r="Y73" t="n">
-        <v>55.4</v>
+        <v>44</v>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>414.4(±55.4)</t>
+          <t>82.2(±44.0)</t>
         </is>
       </c>
     </row>
@@ -7187,87 +7187,87 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="C74" t="n">
         <v>2020</v>
       </c>
       <c r="D74" t="n">
-        <v>142</v>
+        <v>2088</v>
       </c>
       <c r="E74" t="n">
-        <v>130</v>
+        <v>1951</v>
       </c>
       <c r="F74" t="n">
-        <v>124</v>
+        <v>2016</v>
       </c>
       <c r="G74" t="n">
-        <v>125</v>
+        <v>2076</v>
       </c>
       <c r="H74" t="n">
-        <v>110</v>
+        <v>2131</v>
       </c>
       <c r="I74" t="n">
-        <v>131</v>
+        <v>1925</v>
       </c>
       <c r="J74" t="n">
-        <v>126.4</v>
+        <v>2060.6</v>
       </c>
       <c r="K74" t="n">
-        <v>7.5</v>
+        <v>76.5</v>
       </c>
       <c r="L74" t="n">
         <v>1.96</v>
       </c>
       <c r="M74" t="n">
-        <v>6.6</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="N74" t="n">
-        <v>119.8</v>
+        <v>1993.5</v>
       </c>
       <c r="O74" t="n">
-        <v>133</v>
+        <v>2127.7</v>
       </c>
       <c r="P74" t="n">
-        <v>15.6</v>
+        <v>27.4</v>
       </c>
       <c r="Q74" t="n">
-        <v>6.6</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="R74" t="n">
-        <v>12.3</v>
+        <v>1.3</v>
       </c>
       <c r="S74" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>126.4 (±6.6)</t>
+          <t>2060.6 (±67.1)</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>15.6 (±6.6)</t>
+          <t>27.4 (±67.1)</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>12.3% (±5.5%)</t>
+          <t>1.3% (±3.2%)</t>
         </is>
       </c>
       <c r="W74" t="n">
-        <v>16981</v>
+        <v>109804</v>
       </c>
       <c r="X74" t="n">
-        <v>91.90000000000001</v>
+        <v>25</v>
       </c>
       <c r="Y74" t="n">
-        <v>38.8</v>
+        <v>61.1</v>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>91.9(±38.8)</t>
+          <t>25.0(±61.1)</t>
         </is>
       </c>
     </row>
@@ -7279,87 +7279,87 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>2020</v>
       </c>
       <c r="D75" t="n">
-        <v>32445</v>
+        <v>3133</v>
       </c>
       <c r="E75" t="n">
-        <v>31345</v>
+        <v>2879</v>
       </c>
       <c r="F75" t="n">
-        <v>30273</v>
+        <v>2704</v>
       </c>
       <c r="G75" t="n">
-        <v>28973</v>
+        <v>2632</v>
       </c>
       <c r="H75" t="n">
-        <v>27696</v>
+        <v>2669</v>
       </c>
       <c r="I75" t="n">
-        <v>26478</v>
+        <v>2686</v>
       </c>
       <c r="J75" t="n">
-        <v>29591.4</v>
+        <v>2769.200000000001</v>
       </c>
       <c r="K75" t="n">
-        <v>1741.8</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="L75" t="n">
         <v>1.96</v>
       </c>
       <c r="M75" t="n">
-        <v>1526.8</v>
+        <v>75.3</v>
       </c>
       <c r="N75" t="n">
-        <v>28064.6</v>
+        <v>2693.900000000001</v>
       </c>
       <c r="O75" t="n">
-        <v>31118.2</v>
+        <v>2844.500000000001</v>
       </c>
       <c r="P75" t="n">
-        <v>2853.6</v>
+        <v>363.8</v>
       </c>
       <c r="Q75" t="n">
-        <v>1526.8</v>
+        <v>75.3</v>
       </c>
       <c r="R75" t="n">
-        <v>9.6</v>
+        <v>13.1</v>
       </c>
       <c r="S75" t="n">
-        <v>5.3</v>
+        <v>3</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>29591.4 (±1526.8)</t>
+          <t>2769.2 (±75.3)</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>2853.6 (±1526.8)</t>
+          <t>363.8 (±75.3)</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>9.6% (±5.3%)</t>
+          <t>13.1% (±3.0%)</t>
         </is>
       </c>
       <c r="W75" t="n">
-        <v>3471014</v>
+        <v>154540</v>
       </c>
       <c r="X75" t="n">
-        <v>82.2</v>
+        <v>235.4</v>
       </c>
       <c r="Y75" t="n">
-        <v>44</v>
+        <v>48.7</v>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>82.2(±44.0)</t>
+          <t>235.4(±48.7)</t>
         </is>
       </c>
     </row>
@@ -7371,87 +7371,87 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="C76" t="n">
         <v>2020</v>
       </c>
       <c r="D76" t="n">
-        <v>2088</v>
+        <v>276</v>
       </c>
       <c r="E76" t="n">
-        <v>1951</v>
+        <v>237</v>
       </c>
       <c r="F76" t="n">
-        <v>2016</v>
+        <v>245</v>
       </c>
       <c r="G76" t="n">
-        <v>2076</v>
+        <v>314</v>
       </c>
       <c r="H76" t="n">
-        <v>2131</v>
+        <v>249</v>
       </c>
       <c r="I76" t="n">
-        <v>1925</v>
+        <v>235</v>
       </c>
       <c r="J76" t="n">
-        <v>2060.6</v>
+        <v>259.1999999999999</v>
       </c>
       <c r="K76" t="n">
-        <v>76.5</v>
+        <v>29.4</v>
       </c>
       <c r="L76" t="n">
         <v>1.96</v>
       </c>
       <c r="M76" t="n">
-        <v>67.09999999999999</v>
+        <v>25.8</v>
       </c>
       <c r="N76" t="n">
-        <v>1993.5</v>
+        <v>233.3999999999999</v>
       </c>
       <c r="O76" t="n">
-        <v>2127.7</v>
+        <v>284.9999999999999</v>
       </c>
       <c r="P76" t="n">
-        <v>27.4</v>
+        <v>16.8</v>
       </c>
       <c r="Q76" t="n">
-        <v>67.09999999999999</v>
+        <v>25.8</v>
       </c>
       <c r="R76" t="n">
-        <v>1.3</v>
+        <v>6.5</v>
       </c>
       <c r="S76" t="n">
-        <v>3.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>2060.6 (±67.1)</t>
+          <t>259.2 (±25.8)</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>27.4 (±67.1)</t>
+          <t>16.8 (±25.8)</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>1.3% (±3.2%)</t>
+          <t>6.5% (±9.7%)</t>
         </is>
       </c>
       <c r="W76" t="n">
-        <v>109804</v>
+        <v>27510</v>
       </c>
       <c r="X76" t="n">
-        <v>25</v>
+        <v>61.1</v>
       </c>
       <c r="Y76" t="n">
-        <v>61.1</v>
+        <v>93.8</v>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>25.0(±61.1)</t>
+          <t>61.1(±93.8)</t>
         </is>
       </c>
     </row>
@@ -7463,87 +7463,87 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Liechtenstein</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="C77" t="n">
         <v>2020</v>
       </c>
       <c r="D77" t="n">
-        <v>18</v>
+        <v>234</v>
       </c>
       <c r="E77" t="n">
-        <v>19</v>
+        <v>276</v>
       </c>
       <c r="F77" t="n">
-        <v>22</v>
+        <v>245</v>
       </c>
       <c r="G77" t="n">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="H77" t="n">
-        <v>17</v>
+        <v>241</v>
       </c>
       <c r="I77" t="n">
-        <v>18</v>
+        <v>233</v>
       </c>
       <c r="J77" t="n">
-        <v>20.6</v>
+        <v>254.8</v>
       </c>
       <c r="K77" t="n">
-        <v>3.6</v>
+        <v>15.6</v>
       </c>
       <c r="L77" t="n">
         <v>1.96</v>
       </c>
       <c r="M77" t="n">
-        <v>3.2</v>
+        <v>13.7</v>
       </c>
       <c r="N77" t="n">
-        <v>17.40000000000001</v>
+        <v>241.1</v>
       </c>
       <c r="O77" t="n">
-        <v>23.8</v>
+        <v>268.5</v>
       </c>
       <c r="P77" t="n">
-        <v>-2.6</v>
+        <v>-20.8</v>
       </c>
       <c r="Q77" t="n">
-        <v>3.2</v>
+        <v>13.7</v>
       </c>
       <c r="R77" t="n">
-        <v>-12.6</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="S77" t="n">
-        <v>11.8</v>
+        <v>4.6</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>20.6 (±3.2)</t>
+          <t>254.8 (±13.7)</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>-2.6 (±3.2)</t>
+          <t>-20.8 (±13.7)</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>-12.6% (±11.8%)</t>
+          <t>-8.2% (±4.6%)</t>
         </is>
       </c>
       <c r="W77" t="n">
-        <v>2174</v>
+        <v>28443</v>
       </c>
       <c r="X77" t="n">
-        <v>-119.6</v>
+        <v>-73.09999999999999</v>
       </c>
       <c r="Y77" t="n">
-        <v>147.2</v>
+        <v>48.1</v>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>-119.6(±147.2)</t>
+          <t>-73.1(±48.1)</t>
         </is>
       </c>
     </row>
@@ -7555,87 +7555,87 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="C78" t="n">
         <v>2020</v>
       </c>
       <c r="D78" t="n">
-        <v>3133</v>
+        <v>702</v>
       </c>
       <c r="E78" t="n">
-        <v>2879</v>
+        <v>494</v>
       </c>
       <c r="F78" t="n">
-        <v>2704</v>
+        <v>602</v>
       </c>
       <c r="G78" t="n">
-        <v>2632</v>
+        <v>527</v>
       </c>
       <c r="H78" t="n">
-        <v>2669</v>
+        <v>582</v>
       </c>
       <c r="I78" t="n">
-        <v>2686</v>
+        <v>577</v>
       </c>
       <c r="J78" t="n">
-        <v>2769.200000000001</v>
+        <v>563.5999999999999</v>
       </c>
       <c r="K78" t="n">
-        <v>85.90000000000001</v>
+        <v>39.8</v>
       </c>
       <c r="L78" t="n">
         <v>1.96</v>
       </c>
       <c r="M78" t="n">
-        <v>75.3</v>
+        <v>34.9</v>
       </c>
       <c r="N78" t="n">
-        <v>2693.900000000001</v>
+        <v>528.6999999999999</v>
       </c>
       <c r="O78" t="n">
-        <v>2844.500000000001</v>
+        <v>598.4999999999999</v>
       </c>
       <c r="P78" t="n">
-        <v>363.8</v>
+        <v>138.4</v>
       </c>
       <c r="Q78" t="n">
-        <v>75.3</v>
+        <v>34.9</v>
       </c>
       <c r="R78" t="n">
-        <v>13.1</v>
+        <v>24.6</v>
       </c>
       <c r="S78" t="n">
-        <v>3</v>
+        <v>7.3</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>2769.2 (±75.3)</t>
+          <t>563.6 (±34.9)</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>363.8 (±75.3)</t>
+          <t>138.4 (±34.9)</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>13.1% (±3.0%)</t>
+          <t>24.6% (±7.3%)</t>
         </is>
       </c>
       <c r="W78" t="n">
-        <v>154540</v>
+        <v>36223</v>
       </c>
       <c r="X78" t="n">
-        <v>235.4</v>
+        <v>382.1</v>
       </c>
       <c r="Y78" t="n">
-        <v>48.7</v>
+        <v>96.3</v>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>235.4(±48.7)</t>
+          <t>382.1(±96.3)</t>
         </is>
       </c>
     </row>
@@ -7647,87 +7647,87 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="C79" t="n">
         <v>2020</v>
       </c>
       <c r="D79" t="n">
-        <v>276</v>
+        <v>9712</v>
       </c>
       <c r="E79" t="n">
-        <v>237</v>
+        <v>10178</v>
       </c>
       <c r="F79" t="n">
-        <v>245</v>
+        <v>9452</v>
       </c>
       <c r="G79" t="n">
-        <v>314</v>
+        <v>8936</v>
       </c>
       <c r="H79" t="n">
-        <v>249</v>
+        <v>8889</v>
       </c>
       <c r="I79" t="n">
-        <v>235</v>
+        <v>8739</v>
       </c>
       <c r="J79" t="n">
-        <v>259.1999999999999</v>
+        <v>9422.799999999999</v>
       </c>
       <c r="K79" t="n">
-        <v>29.4</v>
+        <v>527.5</v>
       </c>
       <c r="L79" t="n">
         <v>1.96</v>
       </c>
       <c r="M79" t="n">
-        <v>25.8</v>
+        <v>462.4</v>
       </c>
       <c r="N79" t="n">
-        <v>233.3999999999999</v>
+        <v>8960.4</v>
       </c>
       <c r="O79" t="n">
-        <v>284.9999999999999</v>
+        <v>9885.199999999999</v>
       </c>
       <c r="P79" t="n">
-        <v>16.8</v>
+        <v>289.2</v>
       </c>
       <c r="Q79" t="n">
-        <v>25.8</v>
+        <v>462.4</v>
       </c>
       <c r="R79" t="n">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="S79" t="n">
-        <v>9.699999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>259.2 (±25.8)</t>
+          <t>9422.8 (±462.4)</t>
         </is>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>16.8 (±25.8)</t>
+          <t>289.2 (±462.4)</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>6.5% (±9.7%)</t>
+          <t>3.1% (±4.9%)</t>
         </is>
       </c>
       <c r="W79" t="n">
-        <v>27510</v>
+        <v>996048</v>
       </c>
       <c r="X79" t="n">
-        <v>61.1</v>
+        <v>29</v>
       </c>
       <c r="Y79" t="n">
-        <v>93.8</v>
+        <v>46.5</v>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>61.1(±93.8)</t>
+          <t>29.0(±46.5)</t>
         </is>
       </c>
     </row>
@@ -7739,87 +7739,87 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="C80" t="n">
         <v>2020</v>
       </c>
       <c r="D80" t="n">
-        <v>234</v>
+        <v>2271</v>
       </c>
       <c r="E80" t="n">
-        <v>276</v>
+        <v>2454</v>
       </c>
       <c r="F80" t="n">
-        <v>245</v>
+        <v>2429</v>
       </c>
       <c r="G80" t="n">
-        <v>235</v>
+        <v>2338</v>
       </c>
       <c r="H80" t="n">
-        <v>241</v>
+        <v>2246</v>
       </c>
       <c r="I80" t="n">
-        <v>233</v>
+        <v>2150</v>
       </c>
       <c r="J80" t="n">
-        <v>254.8</v>
+        <v>2373.8</v>
       </c>
       <c r="K80" t="n">
-        <v>15.6</v>
+        <v>113.6</v>
       </c>
       <c r="L80" t="n">
         <v>1.96</v>
       </c>
       <c r="M80" t="n">
-        <v>13.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="N80" t="n">
-        <v>241.1</v>
+        <v>2274.2</v>
       </c>
       <c r="O80" t="n">
-        <v>268.5</v>
+        <v>2473.4</v>
       </c>
       <c r="P80" t="n">
-        <v>-20.8</v>
+        <v>-102.8</v>
       </c>
       <c r="Q80" t="n">
-        <v>13.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="R80" t="n">
-        <v>-8.199999999999999</v>
+        <v>-4.3</v>
       </c>
       <c r="S80" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>254.8 (±13.7)</t>
+          <t>2373.8 (±99.6)</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>-20.8 (±13.7)</t>
+          <t>-102.8 (±99.6)</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>-8.2% (±4.6%)</t>
+          <t>-4.3% (±3.9%)</t>
         </is>
       </c>
       <c r="W80" t="n">
-        <v>28443</v>
+        <v>275272</v>
       </c>
       <c r="X80" t="n">
-        <v>-73.09999999999999</v>
+        <v>-37.3</v>
       </c>
       <c r="Y80" t="n">
-        <v>48.1</v>
+        <v>36.1</v>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>-73.1(±48.1)</t>
+          <t>-37.3(±36.1)</t>
         </is>
       </c>
     </row>
@@ -7831,87 +7831,87 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C81" t="n">
         <v>2020</v>
       </c>
       <c r="D81" t="n">
-        <v>702</v>
+        <v>47147</v>
       </c>
       <c r="E81" t="n">
-        <v>494</v>
+        <v>34070</v>
       </c>
       <c r="F81" t="n">
-        <v>602</v>
+        <v>34901</v>
       </c>
       <c r="G81" t="n">
-        <v>527</v>
+        <v>36046</v>
       </c>
       <c r="H81" t="n">
-        <v>582</v>
+        <v>37949</v>
       </c>
       <c r="I81" t="n">
-        <v>577</v>
+        <v>38517</v>
       </c>
       <c r="J81" t="n">
-        <v>563.5999999999999</v>
+        <v>36977.4</v>
       </c>
       <c r="K81" t="n">
-        <v>39.8</v>
+        <v>1710.5</v>
       </c>
       <c r="L81" t="n">
         <v>1.96</v>
       </c>
       <c r="M81" t="n">
-        <v>34.9</v>
+        <v>1499.3</v>
       </c>
       <c r="N81" t="n">
-        <v>528.6999999999999</v>
+        <v>35478.1</v>
       </c>
       <c r="O81" t="n">
-        <v>598.4999999999999</v>
+        <v>38476.7</v>
       </c>
       <c r="P81" t="n">
-        <v>138.4</v>
+        <v>10169.6</v>
       </c>
       <c r="Q81" t="n">
-        <v>34.9</v>
+        <v>1499.3</v>
       </c>
       <c r="R81" t="n">
-        <v>24.6</v>
+        <v>27.5</v>
       </c>
       <c r="S81" t="n">
-        <v>7.3</v>
+        <v>5</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>563.6 (±34.9)</t>
+          <t>36977.4 (±1499.3)</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>138.4 (±34.9)</t>
+          <t>10169.6 (±1499.3)</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>24.6% (±7.3%)</t>
+          <t>27.5% (±5.0%)</t>
         </is>
       </c>
       <c r="W81" t="n">
-        <v>36223</v>
+        <v>2447824</v>
       </c>
       <c r="X81" t="n">
-        <v>382.1</v>
+        <v>415.5</v>
       </c>
       <c r="Y81" t="n">
-        <v>96.3</v>
+        <v>61.2</v>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>382.1(±96.3)</t>
+          <t>415.5(±61.2)</t>
         </is>
       </c>
     </row>
@@ -7923,87 +7923,87 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="C82" t="n">
         <v>2020</v>
       </c>
       <c r="D82" t="n">
-        <v>9712</v>
+        <v>6230</v>
       </c>
       <c r="E82" t="n">
-        <v>10178</v>
+        <v>5353</v>
       </c>
       <c r="F82" t="n">
-        <v>9452</v>
+        <v>5624</v>
       </c>
       <c r="G82" t="n">
-        <v>8936</v>
+        <v>5477</v>
       </c>
       <c r="H82" t="n">
-        <v>8889</v>
+        <v>5442</v>
       </c>
       <c r="I82" t="n">
-        <v>8739</v>
+        <v>5516</v>
       </c>
       <c r="J82" t="n">
-        <v>9422.799999999999</v>
+        <v>5594.400000000001</v>
       </c>
       <c r="K82" t="n">
-        <v>527.5</v>
+        <v>89</v>
       </c>
       <c r="L82" t="n">
         <v>1.96</v>
       </c>
       <c r="M82" t="n">
-        <v>462.4</v>
+        <v>78</v>
       </c>
       <c r="N82" t="n">
-        <v>8960.4</v>
+        <v>5516.400000000001</v>
       </c>
       <c r="O82" t="n">
-        <v>9885.199999999999</v>
+        <v>5672.400000000001</v>
       </c>
       <c r="P82" t="n">
-        <v>289.2</v>
+        <v>635.6</v>
       </c>
       <c r="Q82" t="n">
-        <v>462.4</v>
+        <v>78</v>
       </c>
       <c r="R82" t="n">
-        <v>3.1</v>
+        <v>11.4</v>
       </c>
       <c r="S82" t="n">
-        <v>4.9</v>
+        <v>1.6</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>9422.8 (±462.4)</t>
+          <t>5594.4 (±78.0)</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>289.2 (±462.4)</t>
+          <t>635.6 (±78.0)</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>3.1% (±4.9%)</t>
+          <t>11.4% (±1.6%)</t>
         </is>
       </c>
       <c r="W82" t="n">
-        <v>996048</v>
+        <v>622912</v>
       </c>
       <c r="X82" t="n">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="Y82" t="n">
-        <v>46.5</v>
+        <v>12.6</v>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>29.0(±46.5)</t>
+          <t>102.0(±12.6)</t>
         </is>
       </c>
     </row>
@@ -8015,87 +8015,87 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="C83" t="n">
         <v>2020</v>
       </c>
       <c r="D83" t="n">
-        <v>2271</v>
+        <v>28097</v>
       </c>
       <c r="E83" t="n">
-        <v>2454</v>
+        <v>19570</v>
       </c>
       <c r="F83" t="n">
-        <v>2429</v>
+        <v>20261</v>
       </c>
       <c r="G83" t="n">
-        <v>2338</v>
+        <v>20939</v>
       </c>
       <c r="H83" t="n">
-        <v>2246</v>
+        <v>22355</v>
       </c>
       <c r="I83" t="n">
-        <v>2150</v>
+        <v>21789</v>
       </c>
       <c r="J83" t="n">
-        <v>2373.8</v>
+        <v>21405.20000000001</v>
       </c>
       <c r="K83" t="n">
-        <v>113.6</v>
+        <v>1005.2</v>
       </c>
       <c r="L83" t="n">
         <v>1.96</v>
       </c>
       <c r="M83" t="n">
-        <v>99.59999999999999</v>
+        <v>881.1</v>
       </c>
       <c r="N83" t="n">
-        <v>2274.2</v>
+        <v>20524.10000000001</v>
       </c>
       <c r="O83" t="n">
-        <v>2473.4</v>
+        <v>22286.30000000001</v>
       </c>
       <c r="P83" t="n">
-        <v>-102.8</v>
+        <v>6691.8</v>
       </c>
       <c r="Q83" t="n">
-        <v>99.59999999999999</v>
+        <v>881.1</v>
       </c>
       <c r="R83" t="n">
-        <v>-4.3</v>
+        <v>31.3</v>
       </c>
       <c r="S83" t="n">
-        <v>3.9</v>
+        <v>5.2</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>2373.8 (±99.6)</t>
+          <t>21405.2 (±881.1)</t>
         </is>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>-102.8 (±99.6)</t>
+          <t>6691.8 (±881.1)</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>-4.3% (±3.9%)</t>
+          <t>31.3% (±5.2%)</t>
         </is>
       </c>
       <c r="W83" t="n">
-        <v>275272</v>
+        <v>1201894</v>
       </c>
       <c r="X83" t="n">
-        <v>-37.3</v>
+        <v>556.8</v>
       </c>
       <c r="Y83" t="n">
-        <v>36.1</v>
+        <v>73.3</v>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>-37.3(±36.1)</t>
+          <t>556.8(±73.3)</t>
         </is>
       </c>
     </row>
@@ -8107,87 +8107,87 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="C84" t="n">
         <v>2020</v>
       </c>
       <c r="D84" t="n">
-        <v>47147</v>
+        <v>5756</v>
       </c>
       <c r="E84" t="n">
-        <v>34070</v>
+        <v>4381</v>
       </c>
       <c r="F84" t="n">
-        <v>34901</v>
+        <v>4683</v>
       </c>
       <c r="G84" t="n">
-        <v>36046</v>
+        <v>4598</v>
       </c>
       <c r="H84" t="n">
-        <v>37949</v>
+        <v>4988</v>
       </c>
       <c r="I84" t="n">
-        <v>38517</v>
+        <v>4880</v>
       </c>
       <c r="J84" t="n">
-        <v>36977.4</v>
+        <v>4790</v>
       </c>
       <c r="K84" t="n">
-        <v>1710.5</v>
+        <v>213.4</v>
       </c>
       <c r="L84" t="n">
         <v>1.96</v>
       </c>
       <c r="M84" t="n">
-        <v>1499.3</v>
+        <v>187.1</v>
       </c>
       <c r="N84" t="n">
-        <v>35478.1</v>
+        <v>4602.9</v>
       </c>
       <c r="O84" t="n">
-        <v>38476.7</v>
+        <v>4977.1</v>
       </c>
       <c r="P84" t="n">
-        <v>10169.6</v>
+        <v>966</v>
       </c>
       <c r="Q84" t="n">
-        <v>1499.3</v>
+        <v>187.1</v>
       </c>
       <c r="R84" t="n">
-        <v>27.5</v>
+        <v>20.2</v>
       </c>
       <c r="S84" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>36977.4 (±1499.3)</t>
+          <t>4790.0 (±187.1)</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>10169.6 (±1499.3)</t>
+          <t>966.0 (±187.1)</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>27.5% (±5.0%)</t>
+          <t>20.2% (±4.6%)</t>
         </is>
       </c>
       <c r="W84" t="n">
-        <v>2447824</v>
+        <v>329405</v>
       </c>
       <c r="X84" t="n">
-        <v>415.5</v>
+        <v>293.3</v>
       </c>
       <c r="Y84" t="n">
-        <v>61.2</v>
+        <v>56.8</v>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>415.5(±61.2)</t>
+          <t>293.3(±56.8)</t>
         </is>
       </c>
     </row>
@@ -8199,87 +8199,87 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="C85" t="n">
         <v>2020</v>
       </c>
       <c r="D85" t="n">
-        <v>6230</v>
+        <v>1593</v>
       </c>
       <c r="E85" t="n">
-        <v>5353</v>
+        <v>1239</v>
       </c>
       <c r="F85" t="n">
-        <v>5624</v>
+        <v>1265</v>
       </c>
       <c r="G85" t="n">
-        <v>5477</v>
+        <v>1266</v>
       </c>
       <c r="H85" t="n">
-        <v>5442</v>
+        <v>1457</v>
       </c>
       <c r="I85" t="n">
-        <v>5516</v>
+        <v>1457</v>
       </c>
       <c r="J85" t="n">
-        <v>5594.400000000001</v>
+        <v>1361.6</v>
       </c>
       <c r="K85" t="n">
-        <v>89</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="L85" t="n">
         <v>1.96</v>
       </c>
       <c r="M85" t="n">
-        <v>78</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="N85" t="n">
-        <v>5516.400000000001</v>
+        <v>1275.2</v>
       </c>
       <c r="O85" t="n">
-        <v>5672.400000000001</v>
+        <v>1448</v>
       </c>
       <c r="P85" t="n">
-        <v>635.6</v>
+        <v>231.4</v>
       </c>
       <c r="Q85" t="n">
-        <v>78</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="R85" t="n">
-        <v>11.4</v>
+        <v>17</v>
       </c>
       <c r="S85" t="n">
-        <v>1.6</v>
+        <v>7</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>5594.4 (±78.0)</t>
+          <t>1361.6 (±86.4)</t>
         </is>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>635.6 (±78.0)</t>
+          <t>231.4 (±86.4)</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>11.4% (±1.6%)</t>
+          <t>17.0% (±7.0%)</t>
         </is>
       </c>
       <c r="W85" t="n">
-        <v>622912</v>
+        <v>134197</v>
       </c>
       <c r="X85" t="n">
-        <v>102</v>
+        <v>172.4</v>
       </c>
       <c r="Y85" t="n">
-        <v>12.6</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>102.0(±12.6)</t>
+          <t>172.4(±64.4)</t>
         </is>
       </c>
     </row>
@@ -8291,87 +8291,87 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C86" t="n">
         <v>2020</v>
       </c>
       <c r="D86" t="n">
-        <v>28097</v>
+        <v>23482</v>
       </c>
       <c r="E86" t="n">
-        <v>19570</v>
+        <v>19480</v>
       </c>
       <c r="F86" t="n">
-        <v>20261</v>
+        <v>19195</v>
       </c>
       <c r="G86" t="n">
-        <v>20939</v>
+        <v>19424</v>
       </c>
       <c r="H86" t="n">
-        <v>22355</v>
+        <v>19108</v>
       </c>
       <c r="I86" t="n">
-        <v>21789</v>
+        <v>18894</v>
       </c>
       <c r="J86" t="n">
-        <v>21405.20000000001</v>
+        <v>19587.4</v>
       </c>
       <c r="K86" t="n">
-        <v>1005.2</v>
+        <v>213.9</v>
       </c>
       <c r="L86" t="n">
         <v>1.96</v>
       </c>
       <c r="M86" t="n">
-        <v>881.1</v>
+        <v>187.5</v>
       </c>
       <c r="N86" t="n">
-        <v>20524.10000000001</v>
+        <v>19399.9</v>
       </c>
       <c r="O86" t="n">
-        <v>22286.30000000001</v>
+        <v>19774.9</v>
       </c>
       <c r="P86" t="n">
-        <v>6691.8</v>
+        <v>3894.6</v>
       </c>
       <c r="Q86" t="n">
-        <v>881.1</v>
+        <v>187.5</v>
       </c>
       <c r="R86" t="n">
-        <v>31.3</v>
+        <v>19.9</v>
       </c>
       <c r="S86" t="n">
-        <v>5.2</v>
+        <v>1.2</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>21405.2 (±881.1)</t>
+          <t>19587.4 (±187.5)</t>
         </is>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>6691.8 (±881.1)</t>
+          <t>3894.6 (±187.5)</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>31.3% (±5.2%)</t>
+          <t>19.9% (±1.2%)</t>
         </is>
       </c>
       <c r="W86" t="n">
-        <v>1201894</v>
+        <v>2431759</v>
       </c>
       <c r="X86" t="n">
-        <v>556.8</v>
+        <v>160.2</v>
       </c>
       <c r="Y86" t="n">
-        <v>73.3</v>
+        <v>7.7</v>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>556.8(±73.3)</t>
+          <t>160.2(±7.7)</t>
         </is>
       </c>
     </row>
@@ -8383,87 +8383,87 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="C87" t="n">
         <v>2020</v>
       </c>
       <c r="D87" t="n">
-        <v>5756</v>
+        <v>4451</v>
       </c>
       <c r="E87" t="n">
-        <v>4381</v>
+        <v>5242</v>
       </c>
       <c r="F87" t="n">
-        <v>4683</v>
+        <v>4758</v>
       </c>
       <c r="G87" t="n">
-        <v>4598</v>
+        <v>4478</v>
       </c>
       <c r="H87" t="n">
-        <v>4988</v>
+        <v>4507</v>
       </c>
       <c r="I87" t="n">
-        <v>4880</v>
+        <v>4099</v>
       </c>
       <c r="J87" t="n">
-        <v>4790</v>
+        <v>4724</v>
       </c>
       <c r="K87" t="n">
-        <v>213.4</v>
+        <v>376.9</v>
       </c>
       <c r="L87" t="n">
         <v>1.96</v>
       </c>
       <c r="M87" t="n">
-        <v>187.1</v>
+        <v>330.4</v>
       </c>
       <c r="N87" t="n">
-        <v>4602.9</v>
+        <v>4393.6</v>
       </c>
       <c r="O87" t="n">
-        <v>4977.1</v>
+        <v>5054.4</v>
       </c>
       <c r="P87" t="n">
-        <v>966</v>
+        <v>-273</v>
       </c>
       <c r="Q87" t="n">
-        <v>187.1</v>
+        <v>330.4</v>
       </c>
       <c r="R87" t="n">
-        <v>20.2</v>
+        <v>-5.8</v>
       </c>
       <c r="S87" t="n">
-        <v>4.6</v>
+        <v>6.1</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>4790.0 (±187.1)</t>
+          <t>4724.0 (±330.4)</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>966.0 (±187.1)</t>
+          <t>-273.0 (±330.4)</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>20.2% (±4.6%)</t>
+          <t>-5.8% (±6.1%)</t>
         </is>
       </c>
       <c r="W87" t="n">
-        <v>329405</v>
+        <v>540048</v>
       </c>
       <c r="X87" t="n">
-        <v>293.3</v>
+        <v>-50.6</v>
       </c>
       <c r="Y87" t="n">
-        <v>56.8</v>
+        <v>61.2</v>
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>293.3(±56.8)</t>
+          <t>-50.6(±61.2)</t>
         </is>
       </c>
     </row>
@@ -8475,363 +8475,87 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="C88" t="n">
         <v>2020</v>
       </c>
       <c r="D88" t="n">
-        <v>1593</v>
+        <v>3261</v>
       </c>
       <c r="E88" t="n">
-        <v>1239</v>
+        <v>3438</v>
       </c>
       <c r="F88" t="n">
-        <v>1265</v>
+        <v>3277</v>
       </c>
       <c r="G88" t="n">
-        <v>1266</v>
+        <v>3122</v>
       </c>
       <c r="H88" t="n">
-        <v>1457</v>
+        <v>3137</v>
       </c>
       <c r="I88" t="n">
-        <v>1457</v>
+        <v>3021</v>
       </c>
       <c r="J88" t="n">
-        <v>1361.6</v>
+        <v>3263.8</v>
       </c>
       <c r="K88" t="n">
-        <v>98.59999999999999</v>
+        <v>144.7</v>
       </c>
       <c r="L88" t="n">
         <v>1.96</v>
       </c>
       <c r="M88" t="n">
-        <v>86.40000000000001</v>
+        <v>126.8</v>
       </c>
       <c r="N88" t="n">
-        <v>1275.2</v>
+        <v>3137</v>
       </c>
       <c r="O88" t="n">
-        <v>1448</v>
+        <v>3390.6</v>
       </c>
       <c r="P88" t="n">
-        <v>231.4</v>
+        <v>-2.8</v>
       </c>
       <c r="Q88" t="n">
-        <v>86.40000000000001</v>
+        <v>126.8</v>
       </c>
       <c r="R88" t="n">
-        <v>17</v>
+        <v>-0.1</v>
       </c>
       <c r="S88" t="n">
-        <v>7</v>
+        <v>3.7</v>
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>1361.6 (±86.4)</t>
+          <t>3263.8 (±126.8)</t>
         </is>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>231.4 (±86.4)</t>
+          <t>-2.8 (±126.8)</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>17.0% (±7.0%)</t>
+          <t>-0.1% (±3.7%)</t>
         </is>
       </c>
       <c r="W88" t="n">
-        <v>134197</v>
+        <v>430612</v>
       </c>
       <c r="X88" t="n">
-        <v>172.4</v>
+        <v>-0.7</v>
       </c>
       <c r="Y88" t="n">
-        <v>64.40000000000001</v>
+        <v>29.5</v>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>172.4(±64.4)</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D89" t="n">
-        <v>23482</v>
-      </c>
-      <c r="E89" t="n">
-        <v>19480</v>
-      </c>
-      <c r="F89" t="n">
-        <v>19195</v>
-      </c>
-      <c r="G89" t="n">
-        <v>19424</v>
-      </c>
-      <c r="H89" t="n">
-        <v>19108</v>
-      </c>
-      <c r="I89" t="n">
-        <v>18894</v>
-      </c>
-      <c r="J89" t="n">
-        <v>19587.4</v>
-      </c>
-      <c r="K89" t="n">
-        <v>213.9</v>
-      </c>
-      <c r="L89" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="M89" t="n">
-        <v>187.5</v>
-      </c>
-      <c r="N89" t="n">
-        <v>19399.9</v>
-      </c>
-      <c r="O89" t="n">
-        <v>19774.9</v>
-      </c>
-      <c r="P89" t="n">
-        <v>3894.6</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>187.5</v>
-      </c>
-      <c r="R89" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="S89" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>19587.4 (±187.5)</t>
-        </is>
-      </c>
-      <c r="U89" t="inlineStr">
-        <is>
-          <t>3894.6 (±187.5)</t>
-        </is>
-      </c>
-      <c r="V89" t="inlineStr">
-        <is>
-          <t>19.9% (±1.2%)</t>
-        </is>
-      </c>
-      <c r="W89" t="n">
-        <v>2431759</v>
-      </c>
-      <c r="X89" t="n">
-        <v>160.2</v>
-      </c>
-      <c r="Y89" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="Z89" t="inlineStr">
-        <is>
-          <t>160.2(±7.7)</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D90" t="n">
-        <v>4451</v>
-      </c>
-      <c r="E90" t="n">
-        <v>5242</v>
-      </c>
-      <c r="F90" t="n">
-        <v>4758</v>
-      </c>
-      <c r="G90" t="n">
-        <v>4478</v>
-      </c>
-      <c r="H90" t="n">
-        <v>4507</v>
-      </c>
-      <c r="I90" t="n">
-        <v>4099</v>
-      </c>
-      <c r="J90" t="n">
-        <v>4724</v>
-      </c>
-      <c r="K90" t="n">
-        <v>376.9</v>
-      </c>
-      <c r="L90" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="M90" t="n">
-        <v>330.4</v>
-      </c>
-      <c r="N90" t="n">
-        <v>4393.6</v>
-      </c>
-      <c r="O90" t="n">
-        <v>5054.4</v>
-      </c>
-      <c r="P90" t="n">
-        <v>-273</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>330.4</v>
-      </c>
-      <c r="R90" t="n">
-        <v>-5.8</v>
-      </c>
-      <c r="S90" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>4724.0 (±330.4)</t>
-        </is>
-      </c>
-      <c r="U90" t="inlineStr">
-        <is>
-          <t>-273.0 (±330.4)</t>
-        </is>
-      </c>
-      <c r="V90" t="inlineStr">
-        <is>
-          <t>-5.8% (±6.1%)</t>
-        </is>
-      </c>
-      <c r="W90" t="n">
-        <v>540048</v>
-      </c>
-      <c r="X90" t="n">
-        <v>-50.6</v>
-      </c>
-      <c r="Y90" t="n">
-        <v>61.2</v>
-      </c>
-      <c r="Z90" t="inlineStr">
-        <is>
-          <t>-50.6(±61.2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D91" t="n">
-        <v>3254</v>
-      </c>
-      <c r="E91" t="n">
-        <v>3438</v>
-      </c>
-      <c r="F91" t="n">
-        <v>3277</v>
-      </c>
-      <c r="G91" t="n">
-        <v>3122</v>
-      </c>
-      <c r="H91" t="n">
-        <v>3137</v>
-      </c>
-      <c r="I91" t="n">
-        <v>3021</v>
-      </c>
-      <c r="J91" t="n">
-        <v>3263.8</v>
-      </c>
-      <c r="K91" t="n">
-        <v>144.7</v>
-      </c>
-      <c r="L91" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="M91" t="n">
-        <v>126.8</v>
-      </c>
-      <c r="N91" t="n">
-        <v>3137</v>
-      </c>
-      <c r="O91" t="n">
-        <v>3390.6</v>
-      </c>
-      <c r="P91" t="n">
-        <v>-9.800000000000001</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>126.8</v>
-      </c>
-      <c r="R91" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="S91" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T91" t="inlineStr">
-        <is>
-          <t>3263.8 (±126.8)</t>
-        </is>
-      </c>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>-9.8 (±126.8)</t>
-        </is>
-      </c>
-      <c r="V91" t="inlineStr">
-        <is>
-          <t>-0.3% (±3.7%)</t>
-        </is>
-      </c>
-      <c r="W91" t="n">
-        <v>430612</v>
-      </c>
-      <c r="X91" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="Y91" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="Z91" t="inlineStr">
-        <is>
-          <t>-2.3(±29.5)</t>
+          <t>-0.7(±29.5)</t>
         </is>
       </c>
     </row>

--- a/data_output/Excess Mortality/Countries/TOTAL_EUROPE_(65-69)_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
+++ b/data_output/Excess Mortality/Countries/TOTAL_EUROPE_(65-69)_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
@@ -754,7 +754,7 @@
         <v>2020</v>
       </c>
       <c r="D4" t="n">
-        <v>3975</v>
+        <v>3976</v>
       </c>
       <c r="E4" t="n">
         <v>3292</v>
@@ -790,7 +790,7 @@
         <v>3296.6</v>
       </c>
       <c r="P4" t="n">
-        <v>734.4</v>
+        <v>735.4</v>
       </c>
       <c r="Q4" t="n">
         <v>56</v>
@@ -808,7 +808,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>734.4 (±56.0)</t>
+          <t>735.4 (±56.0)</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -820,14 +820,14 @@
         <v>258560</v>
       </c>
       <c r="X4" t="n">
-        <v>284</v>
+        <v>284.4</v>
       </c>
       <c r="Y4" t="n">
         <v>21.7</v>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>284.0(±21.7)</t>
+          <t>284.4(±21.7)</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
         <v>2020</v>
       </c>
       <c r="D5" t="n">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="E5" t="n">
         <v>1195</v>
@@ -882,13 +882,13 @@
         <v>1316.1</v>
       </c>
       <c r="P5" t="n">
-        <v>196.8</v>
+        <v>193.8</v>
       </c>
       <c r="Q5" t="n">
         <v>46.9</v>
       </c>
       <c r="R5" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="S5" t="n">
         <v>4.1</v>
@@ -900,26 +900,26 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>196.8 (±46.9)</t>
+          <t>193.8 (±46.9)</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>15.5% (±4.1%)</t>
+          <t>15.3% (±4.1%)</t>
         </is>
       </c>
       <c r="W5" t="n">
         <v>142394</v>
       </c>
       <c r="X5" t="n">
-        <v>138.2</v>
+        <v>136.1</v>
       </c>
       <c r="Y5" t="n">
         <v>32.9</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>138.2(±32.9)</t>
+          <t>136.1(±32.9)</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
         <v>2020</v>
       </c>
       <c r="D11" t="n">
-        <v>12617</v>
+        <v>12618</v>
       </c>
       <c r="E11" t="n">
         <v>11547</v>
@@ -1434,7 +1434,7 @@
         <v>11870.1</v>
       </c>
       <c r="P11" t="n">
-        <v>789.8</v>
+        <v>790.8</v>
       </c>
       <c r="Q11" t="n">
         <v>42.9</v>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>789.8 (±42.9)</t>
+          <t>790.8 (±42.9)</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1464,14 +1464,14 @@
         <v>2067425</v>
       </c>
       <c r="X11" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>38.2(±2.1)</t>
+          <t>38.3(±2.0)</t>
         </is>
       </c>
     </row>
@@ -1766,7 +1766,7 @@
         <v>2020</v>
       </c>
       <c r="D15" t="n">
-        <v>11505</v>
+        <v>11510</v>
       </c>
       <c r="E15" t="n">
         <v>11506</v>
@@ -1802,16 +1802,16 @@
         <v>11504.5</v>
       </c>
       <c r="P15" t="n">
-        <v>521.6</v>
+        <v>526.6</v>
       </c>
       <c r="Q15" t="n">
         <v>521.1</v>
       </c>
       <c r="R15" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="S15" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1820,26 +1820,26 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>521.6 (±521.1)</t>
+          <t>526.6 (±521.1)</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>4.7% (±4.7%)</t>
+          <t>4.8% (±4.8%)</t>
         </is>
       </c>
       <c r="W15" t="n">
         <v>1818274</v>
       </c>
       <c r="X15" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="Y15" t="n">
         <v>28.6</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>28.7(±28.6)</t>
+          <t>29.0(±28.6)</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
         <v>2020</v>
       </c>
       <c r="D17" t="n">
-        <v>1055</v>
+        <v>1070</v>
       </c>
       <c r="E17" t="n">
         <v>1001</v>
@@ -1986,13 +1986,13 @@
         <v>997.3000000000001</v>
       </c>
       <c r="P17" t="n">
-        <v>80.8</v>
+        <v>95.8</v>
       </c>
       <c r="Q17" t="n">
         <v>23.1</v>
       </c>
       <c r="R17" t="n">
-        <v>8.300000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S17" t="n">
         <v>2.5</v>
@@ -2004,26 +2004,26 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>80.8 (±23.1)</t>
+          <t>95.8 (±23.1)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>8.3% (±2.5%)</t>
+          <t>9.8% (±2.5%)</t>
         </is>
       </c>
       <c r="W17" t="n">
         <v>92402</v>
       </c>
       <c r="X17" t="n">
-        <v>87.40000000000001</v>
+        <v>103.7</v>
       </c>
       <c r="Y17" t="n">
         <v>25</v>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>87.4(±25.0)</t>
+          <t>103.7(±25.0)</t>
         </is>
       </c>
     </row>
@@ -2042,7 +2042,7 @@
         <v>2020</v>
       </c>
       <c r="D18" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E18" t="n">
         <v>101</v>
@@ -2078,16 +2078,16 @@
         <v>100.7</v>
       </c>
       <c r="P18" t="n">
-        <v>14.6</v>
+        <v>13.6</v>
       </c>
       <c r="Q18" t="n">
         <v>7.3</v>
       </c>
       <c r="R18" t="n">
-        <v>15.6</v>
+        <v>14.6</v>
       </c>
       <c r="S18" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2096,26 +2096,26 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>14.6 (±7.3)</t>
+          <t>13.6 (±7.3)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>15.6% (±8.4%)</t>
+          <t>14.6% (±8.3%)</t>
         </is>
       </c>
       <c r="W18" t="n">
         <v>13913</v>
       </c>
       <c r="X18" t="n">
-        <v>104.9</v>
+        <v>97.8</v>
       </c>
       <c r="Y18" t="n">
-        <v>52.5</v>
+        <v>52.4</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>104.9(±52.5)</t>
+          <t>97.8(±52.4)</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
         <v>2020</v>
       </c>
       <c r="D20" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E20" t="n">
         <v>205</v>
@@ -2262,16 +2262,16 @@
         <v>226</v>
       </c>
       <c r="P20" t="n">
-        <v>19.8</v>
+        <v>22.8</v>
       </c>
       <c r="Q20" t="n">
         <v>13.8</v>
       </c>
       <c r="R20" t="n">
-        <v>9.300000000000001</v>
+        <v>10.7</v>
       </c>
       <c r="S20" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2280,26 +2280,26 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>19.8 (±13.8)</t>
+          <t>22.8 (±13.8)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>9.3% (±6.6%)</t>
+          <t>10.7% (±6.7%)</t>
         </is>
       </c>
       <c r="W20" t="n">
         <v>19269</v>
       </c>
       <c r="X20" t="n">
-        <v>102.8</v>
+        <v>118.3</v>
       </c>
       <c r="Y20" t="n">
         <v>71.59999999999999</v>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>102.8(±71.6)</t>
+          <t>118.3(±71.6)</t>
         </is>
       </c>
     </row>
@@ -2594,7 +2594,7 @@
         <v>2020</v>
       </c>
       <c r="D24" t="n">
-        <v>2082</v>
+        <v>2091</v>
       </c>
       <c r="E24" t="n">
         <v>1829</v>
@@ -2630,13 +2630,13 @@
         <v>1898.8</v>
       </c>
       <c r="P24" t="n">
-        <v>218.6</v>
+        <v>227.6</v>
       </c>
       <c r="Q24" t="n">
         <v>35.4</v>
       </c>
       <c r="R24" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="S24" t="n">
         <v>2.1</v>
@@ -2648,26 +2648,26 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>218.6 (±35.4)</t>
+          <t>227.6 (±35.4)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>11.7% (±2.1%)</t>
+          <t>12.2% (±2.1%)</t>
         </is>
       </c>
       <c r="W24" t="n">
         <v>337447</v>
       </c>
       <c r="X24" t="n">
-        <v>64.8</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="Y24" t="n">
         <v>10.5</v>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>64.8(±10.5)</t>
+          <t>67.4(±10.5)</t>
         </is>
       </c>
     </row>
@@ -3146,7 +3146,7 @@
         <v>2020</v>
       </c>
       <c r="D30" t="n">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="E30" t="n">
         <v>1301</v>
@@ -3182,7 +3182,7 @@
         <v>1291.6</v>
       </c>
       <c r="P30" t="n">
-        <v>-72.8</v>
+        <v>-71.8</v>
       </c>
       <c r="Q30" t="n">
         <v>44.8</v>
@@ -3191,7 +3191,7 @@
         <v>-5.8</v>
       </c>
       <c r="S30" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3200,26 +3200,26 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>-72.8 (±44.8)</t>
+          <t>-71.8 (±44.8)</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>-5.8% (±3.3%)</t>
+          <t>-5.8% (±3.2%)</t>
         </is>
       </c>
       <c r="W30" t="n">
         <v>222768</v>
       </c>
       <c r="X30" t="n">
-        <v>-32.7</v>
+        <v>-32.2</v>
       </c>
       <c r="Y30" t="n">
         <v>20.1</v>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>-32.7(±20.1)</t>
+          <t>-32.2(±20.1)</t>
         </is>
       </c>
     </row>
@@ -3330,7 +3330,7 @@
         <v>2020</v>
       </c>
       <c r="D32" t="n">
-        <v>4569</v>
+        <v>4571</v>
       </c>
       <c r="E32" t="n">
         <v>4040</v>
@@ -3366,16 +3366,16 @@
         <v>4095.8</v>
       </c>
       <c r="P32" t="n">
-        <v>572.2</v>
+        <v>574.2</v>
       </c>
       <c r="Q32" t="n">
         <v>99</v>
       </c>
       <c r="R32" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="S32" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3384,26 +3384,26 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>572.2 (±99.0)</t>
+          <t>574.2 (±99.0)</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>14.3% (±2.7%)</t>
+          <t>14.4% (±2.8%)</t>
         </is>
       </c>
       <c r="W32" t="n">
         <v>302248</v>
       </c>
       <c r="X32" t="n">
-        <v>189.3</v>
+        <v>190</v>
       </c>
       <c r="Y32" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>189.3(±32.8)</t>
+          <t>190.0(±32.7)</t>
         </is>
       </c>
     </row>
@@ -3422,7 +3422,7 @@
         <v>2020</v>
       </c>
       <c r="D33" t="n">
-        <v>7029</v>
+        <v>7031</v>
       </c>
       <c r="E33" t="n">
         <v>6059</v>
@@ -3458,7 +3458,7 @@
         <v>6106.900000000001</v>
       </c>
       <c r="P33" t="n">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="Q33" t="n">
         <v>123.9</v>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>1046.0 (±123.9)</t>
+          <t>1048.0 (±123.9)</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -3488,14 +3488,14 @@
         <v>205259</v>
       </c>
       <c r="X33" t="n">
-        <v>509.6</v>
+        <v>510.6</v>
       </c>
       <c r="Y33" t="n">
-        <v>60.4</v>
+        <v>60.3</v>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>509.6(±60.4)</t>
+          <t>510.6(±60.3)</t>
         </is>
       </c>
     </row>
@@ -3514,7 +3514,7 @@
         <v>2020</v>
       </c>
       <c r="D34" t="n">
-        <v>2962</v>
+        <v>2957</v>
       </c>
       <c r="E34" t="n">
         <v>2373</v>
@@ -3550,13 +3550,13 @@
         <v>2552.900000000001</v>
       </c>
       <c r="P34" t="n">
-        <v>460.4</v>
+        <v>455.4</v>
       </c>
       <c r="Q34" t="n">
         <v>51.3</v>
       </c>
       <c r="R34" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="S34" t="n">
         <v>2.4</v>
@@ -3568,26 +3568,26 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>460.4 (±51.3)</t>
+          <t>455.4 (±51.3)</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>18.4% (±2.4%)</t>
+          <t>18.2% (±2.4%)</t>
         </is>
       </c>
       <c r="W34" t="n">
         <v>124926</v>
       </c>
       <c r="X34" t="n">
-        <v>368.5</v>
+        <v>364.5</v>
       </c>
       <c r="Y34" t="n">
         <v>41.1</v>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>368.5(±41.1)</t>
+          <t>364.5(±41.1)</t>
         </is>
       </c>
     </row>
@@ -3698,7 +3698,7 @@
         <v>2020</v>
       </c>
       <c r="D36" t="n">
-        <v>6826</v>
+        <v>6827</v>
       </c>
       <c r="E36" t="n">
         <v>6384</v>
@@ -3734,7 +3734,7 @@
         <v>6409.100000000001</v>
       </c>
       <c r="P36" t="n">
-        <v>556.4</v>
+        <v>557.4</v>
       </c>
       <c r="Q36" t="n">
         <v>139.5</v>
@@ -3752,7 +3752,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>556.4 (±139.5)</t>
+          <t>557.4 (±139.5)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -3764,14 +3764,14 @@
         <v>315679</v>
       </c>
       <c r="X36" t="n">
-        <v>176.3</v>
+        <v>176.6</v>
       </c>
       <c r="Y36" t="n">
-        <v>44.1</v>
+        <v>44.2</v>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>176.3(±44.1)</t>
+          <t>176.6(±44.2)</t>
         </is>
       </c>
     </row>
@@ -4066,7 +4066,7 @@
         <v>2020</v>
       </c>
       <c r="D40" t="n">
-        <v>24034</v>
+        <v>24038</v>
       </c>
       <c r="E40" t="n">
         <v>23344</v>
@@ -4102,7 +4102,7 @@
         <v>23508.6</v>
       </c>
       <c r="P40" t="n">
-        <v>917.4</v>
+        <v>921.4</v>
       </c>
       <c r="Q40" t="n">
         <v>392</v>
@@ -4111,7 +4111,7 @@
         <v>4</v>
       </c>
       <c r="S40" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -4120,26 +4120,26 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>917.4 (±392.0)</t>
+          <t>921.4 (±392.0)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>4.0% (±1.8%)</t>
+          <t>4.0% (±1.7%)</t>
         </is>
       </c>
       <c r="W40" t="n">
         <v>1835511</v>
       </c>
       <c r="X40" t="n">
-        <v>50</v>
+        <v>50.2</v>
       </c>
       <c r="Y40" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>50.0(±21.3)</t>
+          <t>50.2(±21.4)</t>
         </is>
       </c>
     </row>
@@ -4434,7 +4434,7 @@
         <v>2020</v>
       </c>
       <c r="D44" t="n">
-        <v>20940</v>
+        <v>20938</v>
       </c>
       <c r="E44" t="n">
         <v>19839</v>
@@ -4470,7 +4470,7 @@
         <v>19618.2</v>
       </c>
       <c r="P44" t="n">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="Q44" t="n">
         <v>1010.2</v>
@@ -4488,7 +4488,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>2332.0 (±1010.2)</t>
+          <t>2330.0 (±1010.2)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -4500,14 +4500,14 @@
         <v>1652740</v>
       </c>
       <c r="X44" t="n">
-        <v>141.1</v>
+        <v>141</v>
       </c>
       <c r="Y44" t="n">
         <v>61.1</v>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>141.1(±61.1)</t>
+          <t>141.0(±61.1)</t>
         </is>
       </c>
     </row>
@@ -4618,7 +4618,7 @@
         <v>2020</v>
       </c>
       <c r="D46" t="n">
-        <v>2078</v>
+        <v>2108</v>
       </c>
       <c r="E46" t="n">
         <v>1878</v>
@@ -4654,13 +4654,13 @@
         <v>1850.6</v>
       </c>
       <c r="P46" t="n">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="Q46" t="n">
         <v>55.6</v>
       </c>
       <c r="R46" t="n">
-        <v>15.8</v>
+        <v>17.4</v>
       </c>
       <c r="S46" t="n">
         <v>3.5</v>
@@ -4672,26 +4672,26 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>283.0 (±55.6)</t>
+          <t>313.0 (±55.6)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>15.8% (±3.5%)</t>
+          <t>17.4% (±3.5%)</t>
         </is>
       </c>
       <c r="W46" t="n">
         <v>62138</v>
       </c>
       <c r="X46" t="n">
-        <v>455.4</v>
+        <v>503.7</v>
       </c>
       <c r="Y46" t="n">
         <v>89.5</v>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>455.4(±89.5)</t>
+          <t>503.7(±89.5)</t>
         </is>
       </c>
     </row>
@@ -4710,7 +4710,7 @@
         <v>2020</v>
       </c>
       <c r="D47" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E47" t="n">
         <v>136</v>
@@ -4746,16 +4746,16 @@
         <v>187.7</v>
       </c>
       <c r="P47" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="Q47" t="n">
         <v>21.9</v>
       </c>
       <c r="R47" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="S47" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -4764,26 +4764,26 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>2.2 (±21.9)</t>
+          <t>1.2 (±21.9)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>1.3% (±11.8%)</t>
+          <t>0.7% (±11.7%)</t>
         </is>
       </c>
       <c r="W47" t="n">
         <v>13597</v>
       </c>
       <c r="X47" t="n">
-        <v>16.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y47" t="n">
-        <v>161</v>
+        <v>161.1</v>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>16.2(±161.0)</t>
+          <t>8.8(±161.1)</t>
         </is>
       </c>
     </row>
@@ -4894,7 +4894,7 @@
         <v>2020</v>
       </c>
       <c r="D49" t="n">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="E49" t="n">
         <v>289</v>
@@ -4930,16 +4930,16 @@
         <v>379</v>
       </c>
       <c r="P49" t="n">
-        <v>118.6</v>
+        <v>123.6</v>
       </c>
       <c r="Q49" t="n">
         <v>27.6</v>
       </c>
       <c r="R49" t="n">
-        <v>33.8</v>
+        <v>35.2</v>
       </c>
       <c r="S49" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -4948,26 +4948,26 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>118.6 (±27.6)</t>
+          <t>123.6 (±27.6)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>33.8% (±9.8%)</t>
+          <t>35.2% (±9.9%)</t>
         </is>
       </c>
       <c r="W49" t="n">
         <v>16954</v>
       </c>
       <c r="X49" t="n">
-        <v>699.5</v>
+        <v>729</v>
       </c>
       <c r="Y49" t="n">
         <v>162.8</v>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>699.5(±162.8)</t>
+          <t>729.0(±162.8)</t>
         </is>
       </c>
     </row>
@@ -5262,7 +5262,7 @@
         <v>2020</v>
       </c>
       <c r="D53" t="n">
-        <v>4148</v>
+        <v>4163</v>
       </c>
       <c r="E53" t="n">
         <v>3524</v>
@@ -5298,13 +5298,13 @@
         <v>3796.800000000001</v>
       </c>
       <c r="P53" t="n">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="Q53" t="n">
         <v>65.8</v>
       </c>
       <c r="R53" t="n">
-        <v>11.2</v>
+        <v>11.6</v>
       </c>
       <c r="S53" t="n">
         <v>2</v>
@@ -5316,26 +5316,26 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>417.0 (±65.8)</t>
+          <t>432.0 (±65.8)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>11.2% (±2.0%)</t>
+          <t>11.6% (±2.0%)</t>
         </is>
       </c>
       <c r="W53" t="n">
         <v>285465</v>
       </c>
       <c r="X53" t="n">
-        <v>146.1</v>
+        <v>151.3</v>
       </c>
       <c r="Y53" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>146.1(±23.0)</t>
+          <t>151.3(±23.1)</t>
         </is>
       </c>
     </row>
@@ -5446,7 +5446,7 @@
         <v>2020</v>
       </c>
       <c r="D55" t="n">
-        <v>3753</v>
+        <v>3754</v>
       </c>
       <c r="E55" t="n">
         <v>2835</v>
@@ -5482,7 +5482,7 @@
         <v>3233.199999999998</v>
       </c>
       <c r="P55" t="n">
-        <v>650.8</v>
+        <v>651.8</v>
       </c>
       <c r="Q55" t="n">
         <v>131</v>
@@ -5500,7 +5500,7 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>650.8 (±131.0)</t>
+          <t>651.8 (±131.0)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -5512,14 +5512,14 @@
         <v>148066</v>
       </c>
       <c r="X55" t="n">
-        <v>439.5</v>
+        <v>440.2</v>
       </c>
       <c r="Y55" t="n">
         <v>88.5</v>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>439.5(±88.5)</t>
+          <t>440.2(±88.5)</t>
         </is>
       </c>
     </row>
@@ -5630,7 +5630,7 @@
         <v>2020</v>
       </c>
       <c r="D57" t="n">
-        <v>15883</v>
+        <v>15884</v>
       </c>
       <c r="E57" t="n">
         <v>13492</v>
@@ -5666,7 +5666,7 @@
         <v>13604.7</v>
       </c>
       <c r="P57" t="n">
-        <v>2488.2</v>
+        <v>2489.2</v>
       </c>
       <c r="Q57" t="n">
         <v>209.9</v>
@@ -5675,7 +5675,7 @@
         <v>18.6</v>
       </c>
       <c r="S57" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -5684,26 +5684,26 @@
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>2488.2 (±209.9)</t>
+          <t>2489.2 (±209.9)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>18.6% (±1.9%)</t>
+          <t>18.6% (±1.8%)</t>
         </is>
       </c>
       <c r="W57" t="n">
         <v>1160179</v>
       </c>
       <c r="X57" t="n">
-        <v>214.5</v>
+        <v>214.6</v>
       </c>
       <c r="Y57" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>214.5(±18.1)</t>
+          <t>214.6(±18.0)</t>
         </is>
       </c>
     </row>
@@ -5814,7 +5814,7 @@
         <v>2020</v>
       </c>
       <c r="D59" t="n">
-        <v>2087</v>
+        <v>2092</v>
       </c>
       <c r="E59" t="n">
         <v>2137</v>
@@ -5850,13 +5850,13 @@
         <v>2099.7</v>
       </c>
       <c r="P59" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Q59" t="n">
         <v>82.7</v>
       </c>
       <c r="R59" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="S59" t="n">
         <v>4.1</v>
@@ -5868,26 +5868,26 @@
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>70.0 (±82.7)</t>
+          <t>75.0 (±82.7)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>3.5% (±4.1%)</t>
+          <t>3.7% (±4.1%)</t>
         </is>
       </c>
       <c r="W59" t="n">
         <v>207844</v>
       </c>
       <c r="X59" t="n">
-        <v>33.7</v>
+        <v>36.1</v>
       </c>
       <c r="Y59" t="n">
         <v>39.8</v>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>33.7(±39.8)</t>
+          <t>36.1(±39.8)</t>
         </is>
       </c>
     </row>
@@ -5998,7 +5998,7 @@
         <v>2020</v>
       </c>
       <c r="D61" t="n">
-        <v>7194</v>
+        <v>7196</v>
       </c>
       <c r="E61" t="n">
         <v>6419</v>
@@ -6034,7 +6034,7 @@
         <v>6449.300000000001</v>
       </c>
       <c r="P61" t="n">
-        <v>849.2</v>
+        <v>851.2</v>
       </c>
       <c r="Q61" t="n">
         <v>104.5</v>
@@ -6043,7 +6043,7 @@
         <v>13.4</v>
       </c>
       <c r="S61" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -6052,26 +6052,26 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>849.2 (±104.5)</t>
+          <t>851.2 (±104.5)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>13.4% (±1.9%)</t>
+          <t>13.4% (±1.8%)</t>
         </is>
       </c>
       <c r="W61" t="n">
         <v>623529</v>
       </c>
       <c r="X61" t="n">
-        <v>136.2</v>
+        <v>136.5</v>
       </c>
       <c r="Y61" t="n">
         <v>16.8</v>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>136.2(±16.8)</t>
+          <t>136.5(±16.8)</t>
         </is>
       </c>
     </row>
@@ -6090,7 +6090,7 @@
         <v>2020</v>
       </c>
       <c r="D62" t="n">
-        <v>11004</v>
+        <v>11007</v>
       </c>
       <c r="E62" t="n">
         <v>9351</v>
@@ -6126,7 +6126,7 @@
         <v>9394.5</v>
       </c>
       <c r="P62" t="n">
-        <v>1780.4</v>
+        <v>1783.4</v>
       </c>
       <c r="Q62" t="n">
         <v>170.9</v>
@@ -6135,7 +6135,7 @@
         <v>19.3</v>
       </c>
       <c r="S62" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -6144,26 +6144,26 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>1780.4 (±170.9)</t>
+          <t>1783.4 (±170.9)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>19.3% (±2.2%)</t>
+          <t>19.3% (±2.1%)</t>
         </is>
       </c>
       <c r="W62" t="n">
         <v>463819</v>
       </c>
       <c r="X62" t="n">
-        <v>383.9</v>
+        <v>384.5</v>
       </c>
       <c r="Y62" t="n">
         <v>36.8</v>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>383.9(±36.8)</t>
+          <t>384.5(±36.8)</t>
         </is>
       </c>
     </row>
@@ -6182,7 +6182,7 @@
         <v>2020</v>
       </c>
       <c r="D63" t="n">
-        <v>4428</v>
+        <v>4420</v>
       </c>
       <c r="E63" t="n">
         <v>3568</v>
@@ -6218,13 +6218,13 @@
         <v>3848.899999999999</v>
       </c>
       <c r="P63" t="n">
-        <v>657.2</v>
+        <v>649.2</v>
       </c>
       <c r="Q63" t="n">
         <v>78.09999999999999</v>
       </c>
       <c r="R63" t="n">
-        <v>17.4</v>
+        <v>17.2</v>
       </c>
       <c r="S63" t="n">
         <v>2.4</v>
@@ -6236,26 +6236,26 @@
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>657.2 (±78.1)</t>
+          <t>649.2 (±78.1)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>17.4% (±2.4%)</t>
+          <t>17.2% (±2.4%)</t>
         </is>
       </c>
       <c r="W63" t="n">
         <v>267320</v>
       </c>
       <c r="X63" t="n">
-        <v>245.8</v>
+        <v>242.9</v>
       </c>
       <c r="Y63" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>245.8(±29.3)</t>
+          <t>242.9(±29.2)</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6366,7 @@
         <v>2020</v>
       </c>
       <c r="D65" t="n">
-        <v>10365</v>
+        <v>10366</v>
       </c>
       <c r="E65" t="n">
         <v>9940</v>
@@ -6402,7 +6402,7 @@
         <v>9932.200000000003</v>
       </c>
       <c r="P65" t="n">
-        <v>693.6</v>
+        <v>694.6</v>
       </c>
       <c r="Q65" t="n">
         <v>260.8</v>
@@ -6420,7 +6420,7 @@
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>693.6 (±260.8)</t>
+          <t>694.6 (±260.8)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -6432,14 +6432,14 @@
         <v>678927</v>
       </c>
       <c r="X65" t="n">
-        <v>102.2</v>
+        <v>102.3</v>
       </c>
       <c r="Y65" t="n">
         <v>38.4</v>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>102.2(±38.4)</t>
+          <t>102.3(±38.4)</t>
         </is>
       </c>
     </row>
@@ -6734,7 +6734,7 @@
         <v>2020</v>
       </c>
       <c r="D69" t="n">
-        <v>36651</v>
+        <v>36656</v>
       </c>
       <c r="E69" t="n">
         <v>34891</v>
@@ -6770,7 +6770,7 @@
         <v>35320.3</v>
       </c>
       <c r="P69" t="n">
-        <v>1707.2</v>
+        <v>1712.2</v>
       </c>
       <c r="Q69" t="n">
         <v>376.5</v>
@@ -6788,7 +6788,7 @@
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>1707.2 (±376.5)</t>
+          <t>1712.2 (±376.5)</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
@@ -6800,14 +6800,14 @@
         <v>3902936</v>
       </c>
       <c r="X69" t="n">
-        <v>43.7</v>
+        <v>43.9</v>
       </c>
       <c r="Y69" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>43.7(±9.7)</t>
+          <t>43.9(±9.6)</t>
         </is>
       </c>
     </row>
@@ -7102,7 +7102,7 @@
         <v>2020</v>
       </c>
       <c r="D73" t="n">
-        <v>32445</v>
+        <v>32448</v>
       </c>
       <c r="E73" t="n">
         <v>31345</v>
@@ -7138,16 +7138,16 @@
         <v>31118.2</v>
       </c>
       <c r="P73" t="n">
-        <v>2853.6</v>
+        <v>2856.6</v>
       </c>
       <c r="Q73" t="n">
         <v>1526.8</v>
       </c>
       <c r="R73" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S73" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
@@ -7156,26 +7156,26 @@
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>2853.6 (±1526.8)</t>
+          <t>2856.6 (±1526.8)</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>9.6% (±5.3%)</t>
+          <t>9.7% (±5.4%)</t>
         </is>
       </c>
       <c r="W73" t="n">
         <v>3471014</v>
       </c>
       <c r="X73" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="Y73" t="n">
         <v>44</v>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>82.2(±44.0)</t>
+          <t>82.3(±44.0)</t>
         </is>
       </c>
     </row>
@@ -7286,7 +7286,7 @@
         <v>2020</v>
       </c>
       <c r="D75" t="n">
-        <v>3133</v>
+        <v>3178</v>
       </c>
       <c r="E75" t="n">
         <v>2879</v>
@@ -7322,16 +7322,16 @@
         <v>2844.500000000001</v>
       </c>
       <c r="P75" t="n">
-        <v>363.8</v>
+        <v>408.8</v>
       </c>
       <c r="Q75" t="n">
         <v>75.3</v>
       </c>
       <c r="R75" t="n">
-        <v>13.1</v>
+        <v>14.8</v>
       </c>
       <c r="S75" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -7340,26 +7340,26 @@
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>363.8 (±75.3)</t>
+          <t>408.8 (±75.3)</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>13.1% (±3.0%)</t>
+          <t>14.8% (±3.1%)</t>
         </is>
       </c>
       <c r="W75" t="n">
         <v>154540</v>
       </c>
       <c r="X75" t="n">
-        <v>235.4</v>
+        <v>264.5</v>
       </c>
       <c r="Y75" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>235.4(±48.7)</t>
+          <t>264.5(±48.8)</t>
         </is>
       </c>
     </row>
@@ -7378,7 +7378,7 @@
         <v>2020</v>
       </c>
       <c r="D76" t="n">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E76" t="n">
         <v>237</v>
@@ -7414,16 +7414,16 @@
         <v>284.9999999999999</v>
       </c>
       <c r="P76" t="n">
-        <v>16.8</v>
+        <v>14.8</v>
       </c>
       <c r="Q76" t="n">
         <v>25.8</v>
       </c>
       <c r="R76" t="n">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
       <c r="S76" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -7432,26 +7432,26 @@
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>16.8 (±25.8)</t>
+          <t>14.8 (±25.8)</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>6.5% (±9.7%)</t>
+          <t>5.7% (±9.6%)</t>
         </is>
       </c>
       <c r="W76" t="n">
         <v>27510</v>
       </c>
       <c r="X76" t="n">
-        <v>61.1</v>
+        <v>53.8</v>
       </c>
       <c r="Y76" t="n">
         <v>93.8</v>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>61.1(±93.8)</t>
+          <t>53.8(±93.8)</t>
         </is>
       </c>
     </row>
@@ -7562,7 +7562,7 @@
         <v>2020</v>
       </c>
       <c r="D78" t="n">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="E78" t="n">
         <v>494</v>
@@ -7598,16 +7598,16 @@
         <v>598.4999999999999</v>
       </c>
       <c r="P78" t="n">
-        <v>138.4</v>
+        <v>146.4</v>
       </c>
       <c r="Q78" t="n">
         <v>34.9</v>
       </c>
       <c r="R78" t="n">
-        <v>24.6</v>
+        <v>26</v>
       </c>
       <c r="S78" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -7616,26 +7616,26 @@
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>138.4 (±34.9)</t>
+          <t>146.4 (±34.9)</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>24.6% (±7.3%)</t>
+          <t>26.0% (±7.4%)</t>
         </is>
       </c>
       <c r="W78" t="n">
         <v>36223</v>
       </c>
       <c r="X78" t="n">
-        <v>382.1</v>
+        <v>404.2</v>
       </c>
       <c r="Y78" t="n">
         <v>96.3</v>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>382.1(±96.3)</t>
+          <t>404.2(±96.3)</t>
         </is>
       </c>
     </row>
@@ -7930,7 +7930,7 @@
         <v>2020</v>
       </c>
       <c r="D82" t="n">
-        <v>6230</v>
+        <v>6254</v>
       </c>
       <c r="E82" t="n">
         <v>5353</v>
@@ -7966,16 +7966,16 @@
         <v>5672.400000000001</v>
       </c>
       <c r="P82" t="n">
-        <v>635.6</v>
+        <v>659.6</v>
       </c>
       <c r="Q82" t="n">
         <v>78</v>
       </c>
       <c r="R82" t="n">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="S82" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
@@ -7984,26 +7984,26 @@
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>635.6 (±78.0)</t>
+          <t>659.6 (±78.0)</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>11.4% (±1.6%)</t>
+          <t>11.8% (±1.5%)</t>
         </is>
       </c>
       <c r="W82" t="n">
         <v>622912</v>
       </c>
       <c r="X82" t="n">
-        <v>102</v>
+        <v>105.9</v>
       </c>
       <c r="Y82" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>102.0(±12.6)</t>
+          <t>105.9(±12.5)</t>
         </is>
       </c>
     </row>
@@ -8114,7 +8114,7 @@
         <v>2020</v>
       </c>
       <c r="D84" t="n">
-        <v>5756</v>
+        <v>5757</v>
       </c>
       <c r="E84" t="n">
         <v>4381</v>
@@ -8150,7 +8150,7 @@
         <v>4977.1</v>
       </c>
       <c r="P84" t="n">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="Q84" t="n">
         <v>187.1</v>
@@ -8159,7 +8159,7 @@
         <v>20.2</v>
       </c>
       <c r="S84" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T84" t="inlineStr">
         <is>
@@ -8168,26 +8168,26 @@
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>966.0 (±187.1)</t>
+          <t>967.0 (±187.1)</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>20.2% (±4.6%)</t>
+          <t>20.2% (±4.5%)</t>
         </is>
       </c>
       <c r="W84" t="n">
         <v>329405</v>
       </c>
       <c r="X84" t="n">
-        <v>293.3</v>
+        <v>293.6</v>
       </c>
       <c r="Y84" t="n">
         <v>56.8</v>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>293.3(±56.8)</t>
+          <t>293.6(±56.8)</t>
         </is>
       </c>
     </row>
@@ -8298,7 +8298,7 @@
         <v>2020</v>
       </c>
       <c r="D86" t="n">
-        <v>23482</v>
+        <v>23483</v>
       </c>
       <c r="E86" t="n">
         <v>19480</v>
@@ -8334,7 +8334,7 @@
         <v>19774.9</v>
       </c>
       <c r="P86" t="n">
-        <v>3894.6</v>
+        <v>3895.6</v>
       </c>
       <c r="Q86" t="n">
         <v>187.5</v>
@@ -8343,7 +8343,7 @@
         <v>19.9</v>
       </c>
       <c r="S86" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
@@ -8352,12 +8352,12 @@
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>3894.6 (±187.5)</t>
+          <t>3895.6 (±187.5)</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>19.9% (±1.2%)</t>
+          <t>19.9% (±1.1%)</t>
         </is>
       </c>
       <c r="W86" t="n">
@@ -8482,7 +8482,7 @@
         <v>2020</v>
       </c>
       <c r="D88" t="n">
-        <v>3261</v>
+        <v>3267</v>
       </c>
       <c r="E88" t="n">
         <v>3438</v>
@@ -8518,13 +8518,13 @@
         <v>3390.6</v>
       </c>
       <c r="P88" t="n">
-        <v>-2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q88" t="n">
         <v>126.8</v>
       </c>
       <c r="R88" t="n">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="S88" t="n">
         <v>3.7</v>
@@ -8536,26 +8536,26 @@
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>-2.8 (±126.8)</t>
+          <t>3.2 (±126.8)</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>-0.1% (±3.7%)</t>
+          <t>0.1% (±3.7%)</t>
         </is>
       </c>
       <c r="W88" t="n">
         <v>430612</v>
       </c>
       <c r="X88" t="n">
-        <v>-0.7</v>
+        <v>0.7</v>
       </c>
       <c r="Y88" t="n">
         <v>29.5</v>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>-0.7(±29.5)</t>
+          <t>0.7(±29.5)</t>
         </is>
       </c>
     </row>

--- a/data_output/Excess Mortality/Countries/TOTAL_EUROPE_(65-69)_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
+++ b/data_output/Excess Mortality/Countries/TOTAL_EUROPE_(65-69)_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
@@ -3698,7 +3698,7 @@
         <v>2020</v>
       </c>
       <c r="D36" t="n">
-        <v>6827</v>
+        <v>6828</v>
       </c>
       <c r="E36" t="n">
         <v>6384</v>
@@ -3734,7 +3734,7 @@
         <v>6409.100000000001</v>
       </c>
       <c r="P36" t="n">
-        <v>557.4</v>
+        <v>558.4</v>
       </c>
       <c r="Q36" t="n">
         <v>139.5</v>
@@ -3752,7 +3752,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>557.4 (±139.5)</t>
+          <t>558.4 (±139.5)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -3764,14 +3764,14 @@
         <v>315679</v>
       </c>
       <c r="X36" t="n">
-        <v>176.6</v>
+        <v>176.9</v>
       </c>
       <c r="Y36" t="n">
         <v>44.2</v>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>176.6(±44.2)</t>
+          <t>176.9(±44.2)</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6366,7 @@
         <v>2020</v>
       </c>
       <c r="D65" t="n">
-        <v>10366</v>
+        <v>10367</v>
       </c>
       <c r="E65" t="n">
         <v>9940</v>
@@ -6402,7 +6402,7 @@
         <v>9932.200000000003</v>
       </c>
       <c r="P65" t="n">
-        <v>694.6</v>
+        <v>695.6</v>
       </c>
       <c r="Q65" t="n">
         <v>260.8</v>
@@ -6420,7 +6420,7 @@
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>694.6 (±260.8)</t>
+          <t>695.6 (±260.8)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -6432,14 +6432,14 @@
         <v>678927</v>
       </c>
       <c r="X65" t="n">
-        <v>102.3</v>
+        <v>102.5</v>
       </c>
       <c r="Y65" t="n">
         <v>38.4</v>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>102.3(±38.4)</t>
+          <t>102.5(±38.4)</t>
         </is>
       </c>
     </row>
